--- a/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
   <si>
     <t>MEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,219 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E7" s="2">
         <v>43764</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43673</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43582</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43491</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43400</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43309</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43218</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43127</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43036</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42945</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42854</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42763</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>285900</v>
+      </c>
+      <c r="E8" s="3">
         <v>257200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>270200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>266000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>246900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>264000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>223400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>249000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>228000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>230100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>201200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>219800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>195600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>206600</v>
+      </c>
+      <c r="E9" s="3">
         <v>188600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>194400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>195400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>179600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>190600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>163300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>187100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>167900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>167300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>145600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>164500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>142200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>153700</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>79300</v>
+      </c>
+      <c r="E10" s="3">
         <v>68600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>75800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>70600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>67300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>73400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>60100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>61900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>60100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>62800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>55600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>53400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -980,76 +1000,79 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>10900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>600</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>4200</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2600</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
+      <c r="O14" s="3">
+        <v>0</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E15" s="3">
         <v>4700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>5000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5500</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>3700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1900</v>
       </c>
       <c r="J15" s="3">
         <v>1900</v>
       </c>
       <c r="K15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L15" s="3">
         <v>2000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>1100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>8</v>
@@ -1057,8 +1080,11 @@
       <c r="P15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1098,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>244400</v>
+      </c>
+      <c r="E17" s="3">
         <v>226500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>231600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>233000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>220900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>244900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>194700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>221400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>192400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>200400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>175800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>193800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>166500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>41500</v>
+      </c>
+      <c r="E18" s="3">
         <v>30700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>33000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>26000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>28700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>27600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>35600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>29700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>25400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>26000</v>
-      </c>
-      <c r="O18" s="3">
-        <v>29100</v>
       </c>
       <c r="P18" s="3">
         <v>29100</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>3200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3500</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-600</v>
       </c>
       <c r="M20" s="3">
         <v>-600</v>
       </c>
       <c r="N20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>56300</v>
+      </c>
+      <c r="E21" s="3">
         <v>40900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>47400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>42800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>39900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>27600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>36600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>38900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>46200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>36400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>30400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>34600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>36200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E23" s="3">
         <v>29000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>35600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>30100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>27700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>28200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>30800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>39100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>29100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>24800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>27900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E24" s="3">
         <v>5200</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1800</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-2900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>6600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4300</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4700</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>6600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E26" s="3">
         <v>23800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>22600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>25900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>14600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>23700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>33700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>32500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E27" s="3">
         <v>23800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>28300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>22600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>25900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>14600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>23700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>33700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>32500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1632,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1585,26 +1646,26 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
+      <c r="F29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>4800</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
         <v>3100</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-56800</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>1700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-3200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="L32" s="3">
-        <v>600</v>
       </c>
       <c r="M32" s="3">
         <v>600</v>
       </c>
       <c r="N32" s="3">
+        <v>600</v>
+      </c>
+      <c r="O32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E33" s="3">
         <v>23800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>28300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>22600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>14600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>23700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>36800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-24300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E35" s="3">
         <v>23800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>28300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>22600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>14600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>23700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>36800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-24300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E38" s="2">
         <v>43764</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43673</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43582</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43491</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43400</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43309</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43218</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43127</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43036</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42945</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42854</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42763</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2053,56 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>79900</v>
+      </c>
+      <c r="E41" s="3">
         <v>95600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>73800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>83200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>73700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>110900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>228500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>246100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>304000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>258600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>297900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>294000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>268800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>249600</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,184 +2145,199 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>237600</v>
+      </c>
+      <c r="E43" s="3">
         <v>217300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>246500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>233600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>226200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>240200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>191000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>205000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>202000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>216000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>165100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>165900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>153800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>126100</v>
+      </c>
+      <c r="E44" s="3">
         <v>133800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>122000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>116700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>124000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>118300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>88500</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>84100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>83600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>78400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>64800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>57900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>62000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E45" s="3">
         <v>18700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>19100</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>12500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>463900</v>
+      </c>
+      <c r="E46" s="3">
         <v>465400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>461300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>453500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>446400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>491100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>523900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>550000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>605300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>568900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>546900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>530300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>499100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>497100</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>226300</v>
+      </c>
+      <c r="E48" s="3">
         <v>226700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>222500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>191900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>189100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>187900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>165300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>162200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>153700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>126900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>117400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>90600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>87700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>484200</v>
+      </c>
+      <c r="E49" s="3">
         <v>489400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>493400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>498200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>504400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>509000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>117000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>120200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>125200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>123400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>36100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2568,58 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E52" s="3">
         <v>101200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>91700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>88100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>86300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>82500</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>86600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>83500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>75600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>79100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>83000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>74900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>71400</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1282300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1282700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1268900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1231700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1226200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1270500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>892800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>915900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>959800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>898300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>783400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>704000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>667000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>666500</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,87 +2749,91 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E57" s="3">
         <v>97100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>90700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>91900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>88600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>105600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>79000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>89500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>87900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>99300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>81200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>75300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>67700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15100</v>
+      </c>
+      <c r="E58" s="3">
         <v>15200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>4400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>2900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>3800</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>8</v>
@@ -2707,184 +2841,199 @@
       <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>59700</v>
+      </c>
+      <c r="E59" s="3">
         <v>72000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>73300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>72600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>71300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>53900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>63100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>59500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>50700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>41500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>49100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>43500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>163600</v>
+      </c>
+      <c r="E60" s="3">
         <v>184300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>180800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>180900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>176400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>192200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>136800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>157000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>150300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>152300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>126500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>124400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>111200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>113900</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>241900</v>
+      </c>
+      <c r="E61" s="3">
         <v>259900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>267700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>276900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>287700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>342300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>49200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>53400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>116000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>105500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>47600</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>27000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>37000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E62" s="3">
         <v>105900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>106100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>84200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>88000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>92700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>74600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>75500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>86300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>19900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>11500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>509400</v>
+      </c>
+      <c r="E66" s="3">
         <v>550100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>554600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>542000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>552100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>627200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>260600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>285900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>352600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>291500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>194000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>162900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>159100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>625600</v>
+      </c>
+      <c r="E72" s="3">
         <v>588500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>568900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>545200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>526700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>500000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>490000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>472000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>439200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>467400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>446600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>427000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>407200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>387200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>772900</v>
+      </c>
+      <c r="E76" s="3">
         <v>732600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>714300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>689700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>674100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>643300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>632200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>630000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>607200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>606800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>589400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>541100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>507900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>492800</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43862</v>
+      </c>
+      <c r="E80" s="2">
         <v>43764</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43673</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43582</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43491</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43400</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43309</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43218</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43127</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43036</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42945</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42854</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42763</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E81" s="3">
         <v>23800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>28300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>22600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>14600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>23700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>36800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-24300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +3826,56 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E83" s="3">
         <v>11900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>7100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>5600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>6700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>5900</v>
       </c>
       <c r="P83" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E89" s="3">
         <v>48700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>19100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>37700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>28100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>16200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>30700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>41900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>23600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>38500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>43000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4174,56 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-13600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-12800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-18200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-3700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-13000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-431300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-14000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-116100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-29900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-3700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,37 +4381,38 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4100</v>
+        <v>-4000</v>
       </c>
       <c r="E96" s="3">
         <v>-4100</v>
       </c>
       <c r="F96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-3600</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-4100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-4500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-4100</v>
       </c>
       <c r="J96" s="3">
         <v>-4100</v>
       </c>
       <c r="K96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-3400</v>
       </c>
       <c r="M96" s="3">
         <v>-3400</v>
@@ -4187,13 +4421,16 @@
         <v>-3400</v>
       </c>
       <c r="O96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3700</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4567,148 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-12300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-58800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>300500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-9400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-70300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>56900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-5700</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>700</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>2300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-10000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>16100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>15900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>4200</v>
-      </c>
-      <c r="O101" s="3">
-        <v>-5600</v>
       </c>
       <c r="P101" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="E102" s="3">
         <v>21800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-37200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-117600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-17600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-57900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>45400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-39300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>25200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>19200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>MEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,219 +665,232 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E7" s="2">
         <v>43862</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43764</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43673</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43582</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43491</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43400</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43309</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43218</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43127</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43036</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42945</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42854</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42763</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>210600</v>
+      </c>
+      <c r="E8" s="3">
         <v>285900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>257200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>270200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>266000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>246900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>264000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>223400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>249000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>228000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>230100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>201200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>219800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>195600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>151400</v>
+      </c>
+      <c r="E9" s="3">
         <v>206600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>188600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>194400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>195400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>179600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>190600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>163300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>187100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>167900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>167300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>145600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>164500</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>142200</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>153700</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E10" s="3">
         <v>79300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>68600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>75800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>70600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>67300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>73400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>60100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>61900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>60100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>62800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>55600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>55300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>53400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1003,79 +1023,82 @@
       <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>3800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>10900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>600</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>4200</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
+      <c r="P14" s="3">
+        <v>0</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E15" s="3">
         <v>4800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>4700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4800</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>5000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5500</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>3700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1900</v>
       </c>
       <c r="K15" s="3">
         <v>1900</v>
       </c>
       <c r="L15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="M15" s="3">
         <v>2000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>1100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>600</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>8</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,102 +1125,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>174300</v>
+      </c>
+      <c r="E17" s="3">
         <v>244400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>226500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>231600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>233000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>220900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>244900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>194700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>221400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>192400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>200400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>175800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>193800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>166500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E18" s="3">
         <v>41500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>30700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>38600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>33000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>26000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>19100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>28700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>27600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>35600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>29700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>25400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>26000</v>
-      </c>
-      <c r="P18" s="3">
-        <v>29100</v>
       </c>
       <c r="Q18" s="3">
         <v>29100</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,125 +1245,132 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>2500</v>
+        <v>5900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1700</v>
+        <v>4900</v>
       </c>
       <c r="F20" s="3">
-        <v>-3000</v>
+        <v>1000</v>
       </c>
       <c r="G20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3500</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-600</v>
       </c>
       <c r="N20" s="3">
         <v>-600</v>
       </c>
       <c r="O20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>56300</v>
+        <v>54500</v>
       </c>
       <c r="E21" s="3">
-        <v>40900</v>
+        <v>58700</v>
       </c>
       <c r="F21" s="3">
-        <v>47400</v>
+        <v>43600</v>
       </c>
       <c r="G21" s="3">
+        <v>50300</v>
+      </c>
+      <c r="H21" s="3">
         <v>42800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>39900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>27600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>36600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>38900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>46200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>36400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>30400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>34600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>36200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
+        <v>2900</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E23" s="3">
         <v>44000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>29000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>35600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>30100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>27700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>17600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>28200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>39100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>24800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>27900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10000</v>
+      </c>
+      <c r="E24" s="3">
         <v>2800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>6600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E26" s="3">
         <v>41200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>23800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>28300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>22600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>25900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>14600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>23700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>33700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>32500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E27" s="3">
         <v>41200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>23800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>28300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>22600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>25900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>14600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>23700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>33700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>32500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>20500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1649,26 +1710,26 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>4800</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="3">
         <v>3100</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-56800</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-2500</v>
+        <v>-5900</v>
       </c>
       <c r="E32" s="3">
-        <v>1700</v>
+        <v>-4900</v>
       </c>
       <c r="F32" s="3">
-        <v>3000</v>
+        <v>-1000</v>
       </c>
       <c r="G32" s="3">
+        <v>100</v>
+      </c>
+      <c r="H32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="M32" s="3">
-        <v>600</v>
       </c>
       <c r="N32" s="3">
         <v>600</v>
       </c>
       <c r="O32" s="3">
+        <v>600</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E33" s="3">
         <v>41200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>23800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>28300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>22600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>14600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>23700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>36800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-24300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E35" s="3">
         <v>41200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>23800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>28300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>22600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>14600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>23700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>36800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-24300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E38" s="2">
         <v>43862</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43764</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43673</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43582</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43491</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43400</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43309</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43218</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43127</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43036</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42945</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42854</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42763</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>217300</v>
+      </c>
+      <c r="E41" s="3">
         <v>79900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>95600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>73800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>83200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>73700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>110900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>228500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>246100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>304000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>258600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>297900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>294000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>268800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>249600</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,196 +2238,211 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>201400</v>
+      </c>
+      <c r="E43" s="3">
         <v>237600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>217300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>246500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>233600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>226200</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>240200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>191000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>205000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>202000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>216000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>165100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>165900</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>153800</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E44" s="3">
         <v>126100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>133800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>122000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>116700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>124000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>118300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>88500</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>84100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>83600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>78400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>64800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>57900</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>62000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E45" s="3">
         <v>20300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18700</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>12500</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>565600</v>
+      </c>
+      <c r="E46" s="3">
         <v>463900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>465400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>461300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>453500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>446400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>491100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>523900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>550000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>605300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>568900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>546900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>530300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>499100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>497100</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>225400</v>
+      </c>
+      <c r="E48" s="3">
         <v>226300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>226700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>222500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>191900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>189100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>187900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>165300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>162200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>153700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>126900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>117400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>90600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>87700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>476400</v>
+      </c>
+      <c r="E49" s="3">
         <v>484200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>489400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>493400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>498200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>504400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>509000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>117000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>120200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>125200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>123400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>36100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,55 +2688,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>103200</v>
+      </c>
+      <c r="E52" s="3">
         <v>107900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>101200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>91700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>88100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>86300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>82500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>86600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>83500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>75600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>79100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>83000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>74900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>71400</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1370600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1282300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1282700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1268900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1231700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1226200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1270500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>892800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>915900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>959800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>898300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>783400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>704000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>667000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>666500</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,93 +2880,97 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>73800</v>
+      </c>
+      <c r="E57" s="3">
         <v>88800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>97100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>90700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>91900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>88600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>105600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>79000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>89500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>87900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>99300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>81200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>75300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>67700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E58" s="3">
         <v>15100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>3900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>4400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>2900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3800</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>8</v>
@@ -2844,196 +2978,211 @@
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E59" s="3">
         <v>59700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>72000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>73300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>72600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>71300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>53900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>63100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>59500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>50700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>41500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>49100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>43500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>143800</v>
+      </c>
+      <c r="E60" s="3">
         <v>163600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>184300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>180800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>180900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>176400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>192200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>136800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>157000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>150300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>152300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>126500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>124400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>111200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>113900</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>336800</v>
+      </c>
+      <c r="E61" s="3">
         <v>241900</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>259900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>267700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>276900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>287700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>342300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>49200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>53400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>116000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>105500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>47600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>27000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>37000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E62" s="3">
         <v>103900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>105900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>106100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>84200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>88000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>92700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>74600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>75500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>86300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>19900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>11500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>587200</v>
+      </c>
+      <c r="E66" s="3">
         <v>509400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>550100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>554600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>542000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>552100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>627200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>260600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>285900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>352600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>291500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>194000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>162900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>159100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>651900</v>
+      </c>
+      <c r="E72" s="3">
         <v>625600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>588500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>568900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>545200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>526700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>500000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>490000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>472000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>439200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>467400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>446600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>427000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>407200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>387200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>783400</v>
+      </c>
+      <c r="E76" s="3">
         <v>772900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>732600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>714300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>689700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>674100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>643300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>632200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>630000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>607200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>606800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>589400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>541100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>507900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>492800</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43953</v>
+      </c>
+      <c r="E80" s="2">
         <v>43862</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43764</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43673</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43582</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43491</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43400</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43309</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43218</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43127</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43036</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42945</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42854</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42763</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E81" s="3">
         <v>41200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>23800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>28300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>22600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>14600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>23700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>36800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-24300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3836,46 +4035,49 @@
         <v>12300</v>
       </c>
       <c r="E83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="F83" s="3">
         <v>11900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>7100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>5600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>6700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>5900</v>
       </c>
       <c r="Q83" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>58000</v>
+      </c>
+      <c r="E89" s="3">
         <v>14800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>48700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>19100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>37700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>28100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>16200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>20000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>30700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>41900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>23600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>38500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>43000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-13600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-10400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-18200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-18300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-13000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-431300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-18200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-14000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-19000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-116100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-29900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,40 +4615,41 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4000</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-4100</v>
       </c>
       <c r="F96" s="3">
         <v>-4100</v>
       </c>
       <c r="G96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3600</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-4100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-4500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-4100</v>
       </c>
       <c r="K96" s="3">
         <v>-4100</v>
       </c>
       <c r="L96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-3400</v>
       </c>
       <c r="N96" s="3">
         <v>-3400</v>
@@ -4424,13 +4658,16 @@
         <v>-3400</v>
       </c>
       <c r="P96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,145 +4813,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>91400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-23000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-12300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-14400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-58800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>300500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-9400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-70300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>56900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-5700</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-3000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-10000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>16100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>15900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>4200</v>
-      </c>
-      <c r="P101" s="3">
-        <v>-5600</v>
       </c>
       <c r="Q101" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>137400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-15700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>21800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-9400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>9500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-37200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-117600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-17600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-57900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>45400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-39300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>25200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>19200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
   <si>
     <t>MEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,232 +665,245 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E7" s="2">
         <v>43953</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43862</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43764</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43673</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43582</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43491</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43400</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43309</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43218</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43127</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43036</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42945</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42854</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42763</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>190900</v>
+      </c>
+      <c r="E8" s="3">
         <v>210600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>285900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>257200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>270200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>266000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>246900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>264000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>223400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>249000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>228000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>230100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>201200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>219800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>195600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>145800</v>
+      </c>
+      <c r="E9" s="3">
         <v>151400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>206600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>188600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>194400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>195400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>179600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>190600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>163300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>187100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>167900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>167300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>145600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>164500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>142200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>153700</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E10" s="3">
         <v>59200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>79300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>68600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>75800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>70600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>67300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>60100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>61900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>60100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>62800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>55600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>55300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>53400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -909,8 +922,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -959,8 +973,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1026,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1026,41 +1046,44 @@
       <c r="G14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>3800</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>10900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>600</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>4200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>2600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>8</v>
+      <c r="Q14" s="3">
+        <v>0</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1068,40 +1091,40 @@
         <v>4700</v>
       </c>
       <c r="E15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F15" s="3">
         <v>4800</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4700</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>4800</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>5000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>5500</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>3700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1900</v>
       </c>
       <c r="L15" s="3">
         <v>1900</v>
       </c>
       <c r="M15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N15" s="3">
         <v>2000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>1100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>600</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q15" s="3" t="s">
         <v>8</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,108 +1152,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>177100</v>
+      </c>
+      <c r="E17" s="3">
         <v>174300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>244400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>226500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>231600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>233000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>220900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>244900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>194700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>221400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>192400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>200400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>175800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>193800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>166500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E18" s="3">
         <v>36300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>41500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>38600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>33000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>19100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>28700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>27600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>35600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>29700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>25400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26000</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>29100</v>
       </c>
       <c r="R18" s="3">
         <v>29100</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,125 +1279,132 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E20" s="3">
         <v>5900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>4900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-2900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>3500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-600</v>
       </c>
       <c r="O20" s="3">
         <v>-600</v>
       </c>
       <c r="P20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>29300</v>
+      </c>
+      <c r="E21" s="3">
         <v>54500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>58700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>43600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>50300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>42800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>39900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>27600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>36600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>38900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>46200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36400</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>30400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>34600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>36200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E22" s="3">
         <v>2100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2700</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2900</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>8</v>
@@ -1372,8 +1412,8 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1396,108 +1436,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E23" s="3">
         <v>40100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>44000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>29000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>35600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>30100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>27700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>17600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>28200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>39100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>24800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>27900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>30300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E24" s="3">
         <v>10000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>7500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>6600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>4700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E26" s="3">
         <v>30100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>41200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>23800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>28300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>22600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>25900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>14600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>23700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>33700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>32500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>24200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E27" s="3">
         <v>30100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>41200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>23800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>28300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>22600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>25900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>14600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>23700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>33700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>32500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>24200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1713,26 +1774,26 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>4800</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3">
         <v>3100</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-56800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1913,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-5900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-4900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>2900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>600</v>
       </c>
       <c r="O32" s="3">
         <v>600</v>
       </c>
       <c r="P32" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E33" s="3">
         <v>30100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>41200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>23800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>28300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>22600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>30700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>14600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>23700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>36800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-24300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>24200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E35" s="3">
         <v>30100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>41200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>23800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>28300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>22600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>30700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>14600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>23700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>36800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-24300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>24200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E38" s="2">
         <v>43953</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43862</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43764</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43673</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43582</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43491</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43400</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43309</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43218</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43127</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43036</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42945</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42854</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42763</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E41" s="3">
         <v>217300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>79900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>95600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>73800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>83200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>73700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>110900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>228500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>246100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>304000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>258600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>297900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>294000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>268800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>249600</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,208 +2331,223 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>246600</v>
+      </c>
+      <c r="E43" s="3">
         <v>201400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>237600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>217300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>246500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>233600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>226200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>240200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>191000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>205000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>202000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>216000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>165100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>165900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>153800</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E44" s="3">
         <v>131000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>126100</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>133800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>122000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>116700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>124000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>118300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>88500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>84100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>83600</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>78400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>64800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>57900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>62000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E45" s="3">
         <v>15900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18700</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>12500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>14500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>598000</v>
+      </c>
+      <c r="E46" s="3">
         <v>565600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>463900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>465400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>461300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>453500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>446400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>491100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>523900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>550000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>605300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>568900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>546900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>530300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>499100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>497100</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2596,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>230700</v>
+      </c>
+      <c r="E48" s="3">
         <v>225400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>226300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>226700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>222500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>191900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>189100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>187900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>165300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>162200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>153700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>126900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>117400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>90600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>87700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>475400</v>
+      </c>
+      <c r="E49" s="3">
         <v>476400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>484200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>489400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>493400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>498200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>504400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>509000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>117000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>120200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>125200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>123400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>36100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,58 +2808,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>114100</v>
+      </c>
+      <c r="E52" s="3">
         <v>103200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>107900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>101200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>91700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>88100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>86300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>82500</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>86600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>83500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>75600</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>79100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>83000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>74900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>71400</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1418200</v>
+      </c>
+      <c r="E54" s="3">
         <v>1370600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1282300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1282700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1268900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1231700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1226200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1270500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>892800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>915900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>959800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>898300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>783400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>704000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>667000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>666500</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,99 +3011,103 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>83200</v>
+      </c>
+      <c r="E57" s="3">
         <v>73800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>88800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>97100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>90700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>91900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>88600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>105600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>79000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>89500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>87900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>99300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>81200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>75300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>67700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E58" s="3">
         <v>15300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>4400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>2900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>2300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3800</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
@@ -2981,208 +3115,223 @@
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>61400</v>
+      </c>
+      <c r="E59" s="3">
         <v>54700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>59700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>72000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>74700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>73300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>72600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>71300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>53900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>63100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>59500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>50700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>41500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>49100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>43500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>160000</v>
+      </c>
+      <c r="E60" s="3">
         <v>143800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>163600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>184300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>180800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>180900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>176400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>192200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>136800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>157000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>150300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>152300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>126500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>124400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>111200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>113900</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>334400</v>
+      </c>
+      <c r="E61" s="3">
         <v>336800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>241900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>259900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>267700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>276900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>287700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>342300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>49200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>53400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>116000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>105500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>47600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>27000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>37000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>110000</v>
+      </c>
+      <c r="E62" s="3">
         <v>106600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>103900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>105900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>106100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>84200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>88000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>92700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>74600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>75500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>86300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>19900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>11500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>10900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>604400</v>
+      </c>
+      <c r="E66" s="3">
         <v>587200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>509400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>550100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>554600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>542000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>552100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>627200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>260600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>285900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>352600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>291500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>194000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>162900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>159100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>664600</v>
+      </c>
+      <c r="E72" s="3">
         <v>651900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>625600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>588500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>568900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>545200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>526700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>500000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>490000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>472000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>439200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>467400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>446600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>427000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>407200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>387200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>813800</v>
+      </c>
+      <c r="E76" s="3">
         <v>783400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>772900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>732600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>714300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>689700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>674100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>643300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>632200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>630000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>607200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>606800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>589400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>541100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>507900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>492800</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E80" s="2">
         <v>43953</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43862</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43764</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43673</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43582</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43491</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43400</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43309</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43218</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43127</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43036</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42945</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42854</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42763</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E81" s="3">
         <v>30100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>41200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>23800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>28300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>22600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>30700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>14600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>23700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>36800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-24300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>24200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,58 +4224,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12300</v>
+        <v>12100</v>
       </c>
       <c r="E83" s="3">
         <v>12300</v>
       </c>
       <c r="F83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="G83" s="3">
         <v>11900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>11800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8100</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>7100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>7300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>5600</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>6700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>5900</v>
       </c>
       <c r="R83" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>16400</v>
+      </c>
+      <c r="E89" s="3">
         <v>58000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>14800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>48700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>19100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>37700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>28100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>20000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>30700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>41900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>23600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>38500</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>43000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-10200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-13600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-13200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-10400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-18200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-18300</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-3700</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-10100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-13000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-13200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-431300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-18200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-14000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-19000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-116100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-29900</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,43 +4849,44 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4100</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-4000</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-4100</v>
       </c>
       <c r="G96" s="3">
         <v>-4100</v>
       </c>
       <c r="H96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-3600</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-4100</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-4500</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-4100</v>
       </c>
       <c r="L96" s="3">
         <v>-4100</v>
       </c>
       <c r="M96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-3400</v>
       </c>
       <c r="O96" s="3">
         <v>-3400</v>
@@ -4661,13 +4895,16 @@
         <v>-3400</v>
       </c>
       <c r="Q96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="R96" s="3">
         <v>-3700</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,154 +5059,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E100" s="3">
         <v>91400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-23000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-12300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-14400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-14900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-58800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>300500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-9400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-70300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>56900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1600</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-3000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-10000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-4300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>16100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>15900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>-5600</v>
       </c>
       <c r="R101" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E102" s="3">
         <v>137400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-15700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-9400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>9500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-37200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-117600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-17600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-57900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>45400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-39300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>25200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>19200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>MEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,245 +665,271 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44044</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43953</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43862</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43764</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43673</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43582</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43491</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43400</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43309</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43218</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43127</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43036</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42945</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42854</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42763</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>295300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>300800</v>
+      </c>
+      <c r="F8" s="3">
         <v>190900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>210600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>285900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>257200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>270200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>266000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>246900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>264000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>223400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>249000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>228000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>230100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>201200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>219800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>195600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>145800</v>
+        <v>222300</v>
       </c>
       <c r="E9" s="3">
+        <v>217300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>143900</v>
+      </c>
+      <c r="G9" s="3">
         <v>151400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>206600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>188600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>194400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>195400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>179600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>190600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>163300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>187100</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>167900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>167300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>145600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>164500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>142200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>153700</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>45100</v>
+        <v>73000</v>
       </c>
       <c r="E10" s="3">
+        <v>83500</v>
+      </c>
+      <c r="F10" s="3">
+        <v>47000</v>
+      </c>
+      <c r="G10" s="3">
         <v>59200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>79300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>68600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>75800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>70600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>67300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>73400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>60100</v>
-      </c>
-      <c r="M10" s="3">
-        <v>61900</v>
       </c>
       <c r="N10" s="3">
         <v>60100</v>
       </c>
       <c r="O10" s="3">
+        <v>61900</v>
+      </c>
+      <c r="P10" s="3">
+        <v>60100</v>
+      </c>
+      <c r="Q10" s="3">
         <v>62800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>55600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>55300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>53400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -923,8 +949,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -976,8 +1004,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,19 +1063,25 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>900</v>
+      </c>
+      <c r="F14" s="3">
+        <v>500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1049,52 +1089,58 @@
       <c r="H14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>3800</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>10900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>600</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>4200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>2600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="3">
         <v>4700</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4700</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4800</v>
       </c>
       <c r="G15" s="3">
         <v>4700</v>
@@ -1103,40 +1149,46 @@
         <v>4800</v>
       </c>
       <c r="I15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K15" s="3">
         <v>5000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>5500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>3700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>1900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>1900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>2000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>1100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>600</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,114 +1205,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>177100</v>
+        <v>257200</v>
       </c>
       <c r="E17" s="3">
+        <v>252500</v>
+      </c>
+      <c r="F17" s="3">
+        <v>174200</v>
+      </c>
+      <c r="G17" s="3">
         <v>174300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>244400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>226500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>231600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>233000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>220900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>244900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>194700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>221400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>192400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>200400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>175800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>193800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>166500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>13800</v>
+        <v>38100</v>
       </c>
       <c r="E18" s="3">
+        <v>48300</v>
+      </c>
+      <c r="F18" s="3">
+        <v>16700</v>
+      </c>
+      <c r="G18" s="3">
         <v>36300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>41500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>30700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>38600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>33000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>26000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>19100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>28700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>27600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>35600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>29700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>25400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>26000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>29100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,146 +1346,160 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>3400</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F20" s="3">
+        <v>500</v>
+      </c>
+      <c r="G20" s="3">
         <v>5900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-2900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>3200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>1200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>51300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>60200</v>
+      </c>
+      <c r="F21" s="3">
         <v>29300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>54500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>58700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>43600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>50300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>42800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>39900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>27600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>36600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>38900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>46200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>36400</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>30400</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>34600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>36200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F22" s="3">
         <v>1600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>2100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>2700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1439,114 +1519,132 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>46200</v>
+      </c>
+      <c r="F23" s="3">
         <v>15600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>40100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>44000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>29000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>35600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>30100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>27700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>17600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>28200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>30800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>39100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>29100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>24800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>27900</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>30300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F24" s="3">
         <v>-5100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>5200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>7300</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>7500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>3000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>4500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>6600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>4900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>4700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>6600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1696,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>38600</v>
+      </c>
+      <c r="F26" s="3">
         <v>20700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>30100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>41200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>23800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>28300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>22600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>25900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>14600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>23700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>33700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>32500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>24200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>20500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>23200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>23700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>38600</v>
+      </c>
+      <c r="F27" s="3">
         <v>20700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>30100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>41200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>23800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>28300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>22600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>25900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>14600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>23700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>33700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>32500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>24200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>20500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>23200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>23700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1873,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1777,29 +1899,29 @@
       <c r="H29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
+      <c r="I29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>4800</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>3100</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-56800</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1810,8 +1932,14 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1991,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,114 +2050,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-3400</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
+        <v>700</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G32" s="3">
         <v>-5900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>2900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-3200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-1200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>38600</v>
+      </c>
+      <c r="F33" s="3">
         <v>20700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>30100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>41200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>23800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>28300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>22600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>30700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>14600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>23700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>36800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-24300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>24200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>20500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>23200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>23700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2227,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>38600</v>
+      </c>
+      <c r="F35" s="3">
         <v>20700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>30100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>41200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>23800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>28300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>22600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>30700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>14600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>23700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>36800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-24300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>24200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>20500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>23200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>23700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44044</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43953</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43862</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43764</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43673</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43582</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43491</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43400</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43309</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43218</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43127</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43036</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42945</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42854</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42763</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2377,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2400,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>218700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>242300</v>
+      </c>
+      <c r="F41" s="3">
         <v>211000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>217300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>79900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>95600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>73800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>83200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>73700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>110900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>228500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>246100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>304000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>258600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>297900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>294000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>268800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>249600</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,61 +2514,73 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>284000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>301100</v>
+      </c>
+      <c r="F43" s="3">
         <v>246600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>201400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>237600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>217300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>246500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>233600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>226200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>240200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>191000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>205000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>202000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>216000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>165100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>165900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>153800</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2396,158 +2588,176 @@
         <v>124000</v>
       </c>
       <c r="E44" s="3">
+        <v>120700</v>
+      </c>
+      <c r="F44" s="3">
+        <v>124000</v>
+      </c>
+      <c r="G44" s="3">
         <v>131000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>126100</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>133800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>122000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>116700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>124000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>118300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>88500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>84100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>83600</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>78400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>64800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>57900</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>62000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F45" s="3">
         <v>16400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>15900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>20300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>18700</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>19000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>20000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>22500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>21700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>15900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>14800</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>15700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>15900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>19100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>12500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>14500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>645000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>682300</v>
+      </c>
+      <c r="F46" s="3">
         <v>598000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>565600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>463900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>465400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>461300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>453500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>446400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>491100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>523900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>550000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>605300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>568900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>546900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>530300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>499100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>497100</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2599,114 +2809,132 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>228700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>226700</v>
+      </c>
+      <c r="F48" s="3">
         <v>230700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>225400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>226300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>226700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>222500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>191900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>189100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>187900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>165300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>162200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>153700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>126900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>117400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>90600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>87700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>468500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>470300</v>
+      </c>
+      <c r="F49" s="3">
         <v>475400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>476400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>484200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>489400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>493400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>498200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>504400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>509000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>117000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>120200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>125200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>123400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>36100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>8200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>8800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2986,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,61 +3045,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>102300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F52" s="3">
         <v>114100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>103200</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>107900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>101200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>91700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>88100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>86300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>82500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>86600</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>83500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>75600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>79100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>83000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>74900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>71400</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3163,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1444500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1489300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1418200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1370600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1282300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1282700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1268900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1231700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1226200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1270500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>892800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>915900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>959800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>898300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>783400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>704000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>667000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>666500</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3249,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,61 +3272,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>117800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>112400</v>
+      </c>
+      <c r="F57" s="3">
         <v>83200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>73800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>88800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>97100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>90700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>91900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>88600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>105600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>79000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>89500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>87900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>99300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>81200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>75300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>67700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3077,261 +3345,291 @@
         <v>15300</v>
       </c>
       <c r="F58" s="3">
+        <v>15400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>15300</v>
+      </c>
+      <c r="H58" s="3">
         <v>15100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>15200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>15400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>15700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>15200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>15300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>3900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>4400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>2900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>2300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3800</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>76000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>71000</v>
+      </c>
+      <c r="F59" s="3">
         <v>61400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>54700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>59700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>72000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>74700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>73300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>72600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>71300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>53900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>63100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>59500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>50700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>41500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>49100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>43500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>209200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>198700</v>
+      </c>
+      <c r="F60" s="3">
         <v>160000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>143800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>163600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>184300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>180800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>180900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>176400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>192200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>136800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>157000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>150300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>152300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>126500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>124400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>111200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>113900</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>229200</v>
+      </c>
+      <c r="E61" s="3">
+        <v>332300</v>
+      </c>
+      <c r="F61" s="3">
         <v>334400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>336800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>241900</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>259900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>267700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>276900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>287700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>342300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>49200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>53400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>116000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>105500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>47600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>27000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>37000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E62" s="3">
+        <v>106900</v>
+      </c>
+      <c r="F62" s="3">
         <v>110000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>106600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>103900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>105900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>106100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>84200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>88000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>92700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>74600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>75500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>86300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>33700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>19900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>11500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>10900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3681,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3740,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3799,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>546900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>637900</v>
+      </c>
+      <c r="F66" s="3">
         <v>604400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>587200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>509400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>550100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>554600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>542000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>552100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>627200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>260600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>285900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>352600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>291500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>194000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>162900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>159100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3885,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3940,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3999,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +4058,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +4117,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>726600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>698900</v>
+      </c>
+      <c r="F72" s="3">
         <v>664600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>651900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>625600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>588500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>568900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>545200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>526700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>500000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>490000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>472000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>439200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>467400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>446600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>427000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>407200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>387200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4235,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4294,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4353,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>897600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>851400</v>
+      </c>
+      <c r="F76" s="3">
         <v>813800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>783400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>772900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>732600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>714300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>689700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>674100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>643300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>632200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>630000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>607200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>606800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>589400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>541100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>507900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>492800</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4471,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44226</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44044</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43953</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43862</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43764</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43673</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43582</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43491</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43400</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43309</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43218</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43127</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43036</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42945</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42854</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42763</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>38600</v>
+      </c>
+      <c r="F81" s="3">
         <v>20700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>30100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>41200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>23800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>28300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>22600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>30700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>14600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>23700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>36800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-24300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>24200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>20500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>23200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>23700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,61 +4621,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F83" s="3">
         <v>12100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>12300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>12300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>11900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>11800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>12700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>12200</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>10000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>8400</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>7100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>7300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>5600</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>6700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>5900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4735,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4794,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4853,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4912,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4971,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>87100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>40300</v>
+      </c>
+      <c r="F89" s="3">
         <v>16400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>58000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>14800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>48700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>19100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>37700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>28100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>16200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>20000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>30700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>41900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>21600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>23600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>38500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>43000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +5057,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F91" s="3">
         <v>-11600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-10200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-8100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-13600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-13200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-12800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-8400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-10400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-18200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-13000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-18300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-8400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-9200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-3700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +5171,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5230,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-11600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-10100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-8200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-13000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-13200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-12500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-8800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-431300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-18200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-14000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-19000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-116100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-29900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-8500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,61 +5316,69 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5000</v>
+        <v>-4100</v>
       </c>
       <c r="E96" s="3">
         <v>-4100</v>
       </c>
       <c r="F96" s="3">
-        <v>-4000</v>
+        <v>-5000</v>
       </c>
       <c r="G96" s="3">
         <v>-4100</v>
       </c>
       <c r="H96" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I96" s="3">
         <v>-4100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-3600</v>
       </c>
       <c r="J96" s="3">
         <v>-4100</v>
       </c>
       <c r="K96" s="3">
-        <v>-4500</v>
+        <v>-3600</v>
       </c>
       <c r="L96" s="3">
         <v>-4100</v>
       </c>
       <c r="M96" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="N96" s="3">
         <v>-4100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-3400</v>
       </c>
       <c r="Q96" s="3">
         <v>-3400</v>
       </c>
       <c r="R96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="S96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3700</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5430,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5489,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,163 +5548,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-108600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F100" s="3">
         <v>-13000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>91400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-23000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-12300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-14400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-14900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-58800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>300500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-9400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-70300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>6400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>56900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-9000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-14500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E101" s="3">
+        <v>800</v>
+      </c>
+      <c r="F101" s="3">
         <v>1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>2300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-3000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-10000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-4300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>16100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>15900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>4200</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-5600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-23600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>31300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-6300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>137400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-15700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>21800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-9400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>9500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-37200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-117600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-17600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-57900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>45400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-39300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>3900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>25200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>19200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>MEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,271 +665,284 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E7" s="2">
         <v>44226</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44044</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43953</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43862</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43764</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43673</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43582</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43491</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43400</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43309</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43218</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43127</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43036</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42945</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42854</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42763</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>301000</v>
+      </c>
+      <c r="E8" s="3">
         <v>295300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>190900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>210600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>285900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>257200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>270200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>266000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>246900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>264000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>223400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>249000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>228000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>230100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>201200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>219800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>195600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>225600</v>
+      </c>
+      <c r="E9" s="3">
         <v>222300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>217300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>143900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>151400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>206600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>188600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>194400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>195400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>179600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>190600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>163300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>187100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>167900</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>167300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>145600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>164500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>142200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>153700</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>75400</v>
+      </c>
+      <c r="E10" s="3">
         <v>73000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>83500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>47000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>59200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>79300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>68600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>75800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>70600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>67300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73400</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>60100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>61900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>60100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>62800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>55600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>55300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>53400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,8 +964,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1010,8 +1024,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1069,22 +1086,25 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>8</v>
@@ -1095,41 +1115,44 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>3800</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>10900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>600</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>4200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>2600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>8</v>
+      <c r="T14" s="3">
+        <v>0</v>
       </c>
       <c r="U14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1137,49 +1160,49 @@
         <v>4800</v>
       </c>
       <c r="E15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F15" s="3">
         <v>5000</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4700</v>
       </c>
       <c r="G15" s="3">
         <v>4700</v>
       </c>
       <c r="H15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="I15" s="3">
         <v>4800</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>4700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>5000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>3700</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1900</v>
       </c>
       <c r="O15" s="3">
         <v>1900</v>
       </c>
       <c r="P15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q15" s="3">
         <v>2000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>1100</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>600</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>8</v>
@@ -1187,8 +1210,11 @@
       <c r="U15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1207,126 +1233,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>265100</v>
+      </c>
+      <c r="E17" s="3">
         <v>257200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>252500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>174200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>174300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>244400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>226500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>231600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>233000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>220900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>244900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>194700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>221400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>192400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>200400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>175800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>193800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>166500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>35900</v>
+      </c>
+      <c r="E18" s="3">
         <v>38100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>48300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>16700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>36300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>41500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>30700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>38600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>33000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>26000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>19100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>28700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>27600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>35600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>29700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>25400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26000</v>
-      </c>
-      <c r="T18" s="3">
-        <v>29100</v>
       </c>
       <c r="U18" s="3">
         <v>29100</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1348,152 +1381,159 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>5900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>4900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>3200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-600</v>
       </c>
       <c r="R20" s="3">
         <v>-600</v>
       </c>
       <c r="S20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>50800</v>
+      </c>
+      <c r="E21" s="3">
         <v>51300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>60200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>29300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>54500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>58700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>43600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>50300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>42800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>39900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>27600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>36600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>38900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>46200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>36400</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>30400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>34600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>36200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>900</v>
+      </c>
+      <c r="E22" s="3">
         <v>1300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2100</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2900</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1501,8 +1541,8 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1525,126 +1565,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E23" s="3">
         <v>36500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>46200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>15600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>40100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>44000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>29000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>35600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>30100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>27700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>17600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>28200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>39100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>29100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>24800</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>27900</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>30300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E24" s="3">
         <v>4600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>7600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-5100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2800</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5200</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>3000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>4500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>6600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>4900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4700</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,126 +1751,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E26" s="3">
         <v>31900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>38600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>20700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>30100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>41200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>23800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>28300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>22600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>25900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>14600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>33700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>32500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>24200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>20500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E27" s="3">
         <v>31900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>38600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>20700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>30100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>41200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>23800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>28300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>22600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>25900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>14600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>33700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>32500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>20500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1879,8 +1937,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1905,26 +1966,26 @@
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
         <v>4800</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>3100</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-56800</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1938,8 +1999,11 @@
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1997,8 +2061,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2056,126 +2123,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-5900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-4900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-3200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>600</v>
       </c>
       <c r="R32" s="3">
         <v>600</v>
       </c>
       <c r="S32" s="3">
+        <v>600</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E33" s="3">
         <v>31900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>38600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>20700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>30100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>41200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>23800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>28300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>22600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>14600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>36800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>20500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2233,131 +2309,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E35" s="3">
         <v>31900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>38600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>20700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>30100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>41200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>23800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>28300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>22600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>14600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>36800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>20500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E38" s="2">
         <v>44226</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44044</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43953</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43862</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43764</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43673</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43582</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43491</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43400</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43309</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43218</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43127</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43036</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42945</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42854</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42763</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2379,8 +2464,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2402,67 +2488,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>233200</v>
+      </c>
+      <c r="E41" s="3">
         <v>218700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>242300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>211000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>217300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>79900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>95600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>73800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>83200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>73700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>110900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>228500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>246100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>304000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>258600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>297900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>294000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>268800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>249600</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2520,244 +2610,259 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>294000</v>
+      </c>
+      <c r="E43" s="3">
         <v>284000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>301100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>246600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>201400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>237600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>217300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>246500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>233600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>226200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>240200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>191000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>205000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>202000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>216000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>165100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>165900</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>153800</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E44" s="3">
         <v>124000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>120700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>124000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>131000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>126100</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>133800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>122000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>116700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>124000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>118300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>88500</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>84100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>83600</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>78400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>64800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>57900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>62000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E45" s="3">
         <v>18300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>15900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>19000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>14800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15900</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>12500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>14500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>674000</v>
+      </c>
+      <c r="E46" s="3">
         <v>645000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>682300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>598000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>565600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>463900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>465400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>461300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>453500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>446400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>491100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>523900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>550000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>605300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>568900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>546900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>530300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>499100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>497100</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2815,126 +2920,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>226300</v>
+      </c>
+      <c r="E48" s="3">
         <v>228700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>226700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>230700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>225400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>226300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>226700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>222500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>191900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>189100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>187900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>165300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>162200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>153700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>126900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>117400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>90600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>87700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>465000</v>
+      </c>
+      <c r="E49" s="3">
         <v>468500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>470300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>475400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>476400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>484200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>489400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>493400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>498200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>504400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>509000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>117000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>120200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>125200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>123400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>36100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2992,8 +3106,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3051,67 +3168,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>101700</v>
+      </c>
+      <c r="E52" s="3">
         <v>102300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>110000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>114100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>103200</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>107900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>101200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>91700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>88100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>86300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>82500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>86600</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>83500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>75600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>79100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>83000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>74900</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>71400</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3169,67 +3292,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1467000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1444500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1489300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1418200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1370600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1282300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1282700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1268900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1231700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1226200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1270500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>892800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>915900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>959800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>898300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>783400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>704000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>667000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>666500</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3251,8 +3380,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3274,117 +3404,121 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E57" s="3">
         <v>117800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>112400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>83200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>73800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>88800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>97100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>90700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>91900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>88600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>105600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>79000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>89500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>87900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>99300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>81200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>75300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>67700</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E58" s="3">
         <v>15400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15700</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>3900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>4400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>2900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3800</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>8</v>
@@ -3392,244 +3526,259 @@
       <c r="U58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>84900</v>
+      </c>
+      <c r="E59" s="3">
         <v>76000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>71000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>61400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>54700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>59700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>72000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>74700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>73300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>72600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>71300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>53900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>63100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>59500</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>50700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>41500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>49100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>43500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>222700</v>
+      </c>
+      <c r="E60" s="3">
         <v>209200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>198700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>160000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>143800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>163600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>184300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>180800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>180900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>176400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>192200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>136800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>157000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>150300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>152300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>126500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>124400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>111200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>113900</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>225200</v>
+      </c>
+      <c r="E61" s="3">
         <v>229200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>332300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>334400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>336800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>241900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>259900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>267700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>276900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>287700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>342300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>49200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>53400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>116000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>105500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>47600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>27000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>37000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>101100</v>
+      </c>
+      <c r="E62" s="3">
         <v>108500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>106900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>110000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>106600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>103900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>105900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>106100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>84200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>88000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>92700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>74600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>75500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>86300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>33700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>19900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>11500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>10900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3687,8 +3836,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3746,8 +3898,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3805,67 +3960,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>549000</v>
+      </c>
+      <c r="E66" s="3">
         <v>546900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>637900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>604400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>587200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>509400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>550100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>554600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>542000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>552100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>627200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>260600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>285900</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>352600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>291500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>194000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>162900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>159100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3887,8 +4048,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3946,8 +4108,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4005,8 +4170,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4064,8 +4232,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4123,67 +4294,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>746000</v>
+      </c>
+      <c r="E72" s="3">
         <v>726600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>698900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>664600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>651900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>625600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>588500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>568900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>545200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>526700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>500000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>490000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>472000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>439200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>467400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>446600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>427000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>407200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>387200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4241,8 +4418,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4300,8 +4480,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4359,67 +4542,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>918000</v>
+      </c>
+      <c r="E76" s="3">
         <v>897600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>851400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>813800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>783400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>772900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>732600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>714300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>689700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>674100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>643300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>632200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>630000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>607200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>606800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>589400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>541100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>507900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>492800</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4477,131 +4666,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44317</v>
+      </c>
+      <c r="E80" s="2">
         <v>44226</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44044</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43953</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43862</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43764</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43673</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43582</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43491</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43400</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43309</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43218</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43127</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43036</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42945</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42854</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42763</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E81" s="3">
         <v>31900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>38600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>20700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>30100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>41200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>23800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>28300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>22600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>14600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>36800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-24300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>20500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4623,67 +4821,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E83" s="3">
         <v>13500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>12300</v>
       </c>
       <c r="H83" s="3">
         <v>12300</v>
       </c>
       <c r="I83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="J83" s="3">
         <v>11900</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>11800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>7100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5600</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>6700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>5900</v>
       </c>
       <c r="U83" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4741,8 +4943,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4800,8 +5005,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4859,8 +5067,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4918,8 +5129,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4977,67 +5191,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E89" s="3">
         <v>87100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>40300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>16400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>58000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>14800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>48700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>19100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>37700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>28100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>30700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>41900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>21600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>23600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>38500</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>43000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5059,67 +5279,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-11600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-10200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-18200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-18300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-3700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5177,8 +5401,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5236,8 +5463,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5245,58 +5475,61 @@
         <v>-4800</v>
       </c>
       <c r="E94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="F94" s="3">
         <v>-3600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-11600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-10100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-13000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-12500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8800</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-431300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-18200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-14000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-19000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-116100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-29900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5318,52 +5551,53 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-4100</v>
+        <v>-4200</v>
       </c>
       <c r="E96" s="3">
         <v>-4100</v>
       </c>
       <c r="F96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-5000</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-4100</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-4000</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-4100</v>
       </c>
       <c r="J96" s="3">
         <v>-4100</v>
       </c>
       <c r="K96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-3600</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-4100</v>
       </c>
       <c r="O96" s="3">
         <v>-4100</v>
       </c>
       <c r="P96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-3400</v>
       </c>
       <c r="R96" s="3">
         <v>-3400</v>
@@ -5372,13 +5606,16 @@
         <v>-3400</v>
       </c>
       <c r="T96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="U96" s="3">
         <v>-3700</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5436,8 +5673,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5495,8 +5735,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5554,181 +5797,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-108600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-13000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>91400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-23000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-12300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-14400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-58800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>300500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-9400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-70300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>56900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-5700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E101" s="3">
         <v>2700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-3000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-10000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4300</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>16100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>15900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>4200</v>
-      </c>
-      <c r="T101" s="3">
-        <v>-5600</v>
       </c>
       <c r="U101" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-23600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>31300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-6300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>137400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-15700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>21800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-37200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-117600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-17600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-57900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>45400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-39300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>3900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>25200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>19200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>MEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,284 +665,297 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44317</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44226</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44044</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43953</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43862</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43764</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43673</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43582</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43491</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43400</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43309</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43218</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43127</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43036</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42945</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42854</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42763</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>287800</v>
+      </c>
+      <c r="E8" s="3">
         <v>301000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>295300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>190900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>210600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>285900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>257200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>270200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>266000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>246900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>264000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>223400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>249000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>228000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>230100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>201200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>219800</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>195600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>216100</v>
+      </c>
+      <c r="E9" s="3">
         <v>225600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>222300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>217300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>143900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>151400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>206600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>188600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>194400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>195400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>179600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>190600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>163300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>187100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>167900</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>167300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>145600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>164500</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>142200</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>153700</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>71700</v>
+      </c>
+      <c r="E10" s="3">
         <v>75400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>73000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>83500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>47000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>59200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>79300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>68600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>70600</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>67300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>73400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>60100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>61900</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>60100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>62800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>55600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>55300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>53400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +978,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,8 +1041,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1089,25 +1106,28 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>500</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1118,41 +1138,44 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>3800</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>10900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>600</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>4200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>2600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>8</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1163,49 +1186,49 @@
         <v>4800</v>
       </c>
       <c r="F15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="G15" s="3">
         <v>5000</v>
-      </c>
-      <c r="G15" s="3">
-        <v>4700</v>
       </c>
       <c r="H15" s="3">
         <v>4700</v>
       </c>
       <c r="I15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J15" s="3">
         <v>4800</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>4700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>4800</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>5000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>5500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>3700</v>
-      </c>
-      <c r="O15" s="3">
-        <v>1900</v>
       </c>
       <c r="P15" s="3">
         <v>1900</v>
       </c>
       <c r="Q15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R15" s="3">
         <v>2000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>1100</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>600</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U15" s="3" t="s">
         <v>8</v>
@@ -1213,8 +1236,11 @@
       <c r="V15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1234,132 +1260,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>251800</v>
+      </c>
+      <c r="E17" s="3">
         <v>265100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>257200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>252500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>174200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>174300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>244400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>226500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>231600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>233000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>220900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>244900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>194700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>221400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>192400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>200400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>175800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>193800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>166500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E18" s="3">
         <v>35900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>38100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>48300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>16700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>36300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>41500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>30700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>33000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>26000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>19100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>28700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>27600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>35600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>29700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>25400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26000</v>
-      </c>
-      <c r="U18" s="3">
-        <v>29100</v>
       </c>
       <c r="V18" s="3">
         <v>29100</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1382,161 +1415,168 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>5900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3500</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-600</v>
       </c>
       <c r="S20" s="3">
         <v>-600</v>
       </c>
       <c r="T20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>48500</v>
+      </c>
+      <c r="E21" s="3">
         <v>50800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>51300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>60200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>29300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>54500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>58700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>43600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>50300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>42800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>39900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>27600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>36600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>38900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>46200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>36400</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>30400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>34600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>36200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E22" s="3">
         <v>900</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1400</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>2100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2900</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1544,8 +1584,8 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1568,132 +1608,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>34800</v>
+      </c>
+      <c r="E23" s="3">
         <v>36600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>36500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>46200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>40100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>44000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>29000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>35600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>30100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>27700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>17600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>28200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>39100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>29100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>24800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>27900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>30300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E24" s="3">
         <v>5500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-5100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2800</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>4500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>6600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4700</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1754,132 +1803,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E26" s="3">
         <v>31100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>31900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>38600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>20700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>30100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>41200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>23800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>28300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>22600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>25900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>14600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>33700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>32500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>24200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>20500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>23700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E27" s="3">
         <v>31100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>31900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>38600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>20700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>30100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>41200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>23800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>28300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>22600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>25900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>14600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>33700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>32500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>24200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>20500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>23700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1940,8 +1998,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1969,26 +2030,26 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
         <v>4800</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>3100</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-56800</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -2002,8 +2063,11 @@
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2064,8 +2128,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2126,132 +2193,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-5900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="R32" s="3">
-        <v>600</v>
       </c>
       <c r="S32" s="3">
         <v>600</v>
       </c>
       <c r="T32" s="3">
+        <v>600</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E33" s="3">
         <v>31100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>31900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>38600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>20700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>30100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>41200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>23800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>28300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>22600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>14600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>36800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-24300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>24200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>20500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2312,137 +2388,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E35" s="3">
         <v>31100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>31900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>38600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>20700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>30100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>41200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>23800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>28300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>22600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>14600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>36800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-24300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>24200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>20500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44317</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44226</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44044</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43953</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43862</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43764</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43673</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43582</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43491</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43400</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43309</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43218</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43127</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43036</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42945</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42854</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42763</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2465,8 +2550,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2489,70 +2575,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>207900</v>
+      </c>
+      <c r="E41" s="3">
         <v>233200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>218700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>242300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>211000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>217300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>79900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>95600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>73800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>83200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>73700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>110900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>228500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>246100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>304000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>258600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>297900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>294000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>268800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>249600</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2613,256 +2703,271 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E43" s="3">
         <v>294000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>284000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>301100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>246600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>201400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>237600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>217300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>246500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>233600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>226200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>240200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>191000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>205000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>202000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>216000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>165100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>165900</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>153800</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>142400</v>
+      </c>
+      <c r="E44" s="3">
         <v>124200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>124000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>120700</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>124000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>131000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>126100</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>133800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>122000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>116700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>124000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>118300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>88500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>84100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>83600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>78400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>64800</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>57900</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>62000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20600</v>
+      </c>
+      <c r="E45" s="3">
         <v>22600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>18300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>18200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>19000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>22500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>14800</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>15700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>12500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>14500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>660900</v>
+      </c>
+      <c r="E46" s="3">
         <v>674000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>645000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>682300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>598000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>565600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>463900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>465400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>461300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>453500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>446400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>491100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>523900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>550000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>605300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>568900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>546900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>530300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>499100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>497100</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2923,132 +3028,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>235200</v>
+      </c>
+      <c r="E48" s="3">
         <v>226300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>228700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>226700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>230700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>225400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>226300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>226700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>222500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>191900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>189100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>187900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>165300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>162200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>153700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>126900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>117400</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>90600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>87700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>459300</v>
+      </c>
+      <c r="E49" s="3">
         <v>465000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>468500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>470300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>475400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>476400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>484200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>489400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>493400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>498200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>504400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>509000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>117000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>120200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>125200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>123400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>36100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3109,8 +3223,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3171,70 +3288,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>103600</v>
+      </c>
+      <c r="E52" s="3">
         <v>101700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>102300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>110000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>114100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>103200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>107900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>101200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>91700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>88100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>86300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>82500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>86600</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>83500</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>75600</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>79100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>83000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>74900</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>71400</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3295,70 +3418,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1459000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1467000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1444500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1489300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1418200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1370600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1282300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1282700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1268900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1231700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1226200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1270500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>892800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>915900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>959800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>898300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>783400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>704000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>667000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>666500</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3381,8 +3510,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3405,123 +3535,127 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>110800</v>
+      </c>
+      <c r="E57" s="3">
         <v>122900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>117800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>112400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>83200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>73800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>88800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>97100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>90700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>91900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>88600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>105600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>79000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>89500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>87900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>99300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>81200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>75300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>67700</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E58" s="3">
         <v>14900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>15300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>15400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15700</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>3900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>4400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>2900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>2300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3800</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>8</v>
@@ -3529,256 +3663,271 @@
       <c r="V58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>78500</v>
+      </c>
+      <c r="E59" s="3">
         <v>84900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>76000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>71000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>61400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>54700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>59700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>72000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>74700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>73300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>72600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>71300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>53900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>63100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>59500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>50700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>41500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>49100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>43500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>204100</v>
+      </c>
+      <c r="E60" s="3">
         <v>222700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>209200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>198700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>160000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>143800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>163600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>184300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>180800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>180900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>176400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>192200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>136800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>157000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>150300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>152300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>126500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>124400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>111200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>113900</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>220600</v>
+      </c>
+      <c r="E61" s="3">
         <v>225200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>229200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>332300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>334400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>336800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>241900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>259900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>267700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>276900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>287700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>342300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>49200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>53400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>116000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>105500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>47600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>27000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>37000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>100000</v>
+      </c>
+      <c r="E62" s="3">
         <v>101100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>108500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>106900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>110000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>106600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>103900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>105900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>106100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>84200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>88000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>92700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>74600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>75500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>86300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>33700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>19900</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>11500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>10900</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3839,8 +3988,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3901,8 +4053,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3963,70 +4118,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>524700</v>
+      </c>
+      <c r="E66" s="3">
         <v>549000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>546900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>637900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>604400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>587200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>509400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>550100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>554600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>542000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>552100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>627200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>260600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>285900</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>352600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>291500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>194000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>162900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>159100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4049,8 +4210,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4111,8 +4273,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4173,8 +4338,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4235,8 +4403,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4297,70 +4468,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>761900</v>
+      </c>
+      <c r="E72" s="3">
         <v>746000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>726600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>698900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>664600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>651900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>625600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>588500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>568900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>545200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>526700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>500000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>490000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>472000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>439200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>467400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>446600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>427000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>407200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>387200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4421,8 +4598,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4483,8 +4663,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4545,70 +4728,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>934300</v>
+      </c>
+      <c r="E76" s="3">
         <v>918000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>897600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>851400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>813800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>783400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>772900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>732600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>714300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>689700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>674100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>643300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>632200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>630000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>607200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>606800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>589400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>541100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>507900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>492800</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4669,137 +4858,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44317</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44226</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44044</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43953</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43862</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43764</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43673</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43582</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43491</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43400</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43309</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43218</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43127</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43036</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42945</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42854</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42763</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29100</v>
+      </c>
+      <c r="E81" s="3">
         <v>31100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>31900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>38600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>20700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>30100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>41200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>23800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>28300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>22600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>14600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>36800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-24300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>24200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>20500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4822,70 +5020,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E83" s="3">
         <v>13300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12100</v>
-      </c>
-      <c r="H83" s="3">
-        <v>12300</v>
       </c>
       <c r="I83" s="3">
         <v>12300</v>
       </c>
       <c r="J83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="K83" s="3">
         <v>11900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>11800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>8400</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>8100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>7100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>7300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5600</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>6700</v>
-      </c>
-      <c r="U83" s="3">
-        <v>5900</v>
       </c>
       <c r="V83" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4946,8 +5148,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5008,8 +5213,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5070,8 +5278,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5132,8 +5343,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5194,70 +5408,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9700</v>
+      </c>
+      <c r="E89" s="3">
         <v>36000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>87100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>40300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>16400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>58000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>14800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>48700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>19100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>37700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>28100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>30700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>41900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>21600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>23600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>38500</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>43000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5280,70 +5500,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-4900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-11600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-10200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-18200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-18300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-3700</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5404,8 +5628,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5466,70 +5693,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-4800</v>
+        <v>-15400</v>
       </c>
       <c r="E94" s="3">
         <v>-4800</v>
       </c>
       <c r="F94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="G94" s="3">
         <v>-3600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-11600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-10100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-13000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-13200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-12500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-431300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-18200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-14000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-19000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-116100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-29900</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3700</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5552,55 +5785,56 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4200</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-4100</v>
       </c>
       <c r="F96" s="3">
         <v>-4100</v>
       </c>
       <c r="G96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-5000</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-4100</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-4000</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-4100</v>
       </c>
       <c r="K96" s="3">
         <v>-4100</v>
       </c>
       <c r="L96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-3600</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4500</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-4100</v>
       </c>
       <c r="P96" s="3">
         <v>-4100</v>
       </c>
       <c r="Q96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="R96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-3400</v>
       </c>
       <c r="S96" s="3">
         <v>-3400</v>
@@ -5609,13 +5843,16 @@
         <v>-3400</v>
       </c>
       <c r="U96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="V96" s="3">
         <v>-3700</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5676,8 +5913,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5738,8 +5978,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5800,190 +6043,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-15100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-108600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-13000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>91400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-23000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-12300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-14400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-58800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>300500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-9400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-70300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>56900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-14500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1600</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>2700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2300</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-3000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-10000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>16100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1700</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>15900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>4200</v>
-      </c>
-      <c r="U101" s="3">
-        <v>-5600</v>
       </c>
       <c r="V101" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-25300</v>
+      </c>
+      <c r="E102" s="3">
         <v>14500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-23600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>31300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-6300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>137400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-15700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>21800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-37200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-117600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-17600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-57900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>45400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-39300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>3900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>25200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>19200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>MEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,297 +665,323 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44317</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44226</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44044</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43953</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43862</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43764</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43673</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43582</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43491</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43400</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43309</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43218</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43127</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43036</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42945</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42854</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42763</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>291600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>295500</v>
+      </c>
+      <c r="F8" s="3">
         <v>287800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>301000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>295300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>300800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>190900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>210600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>285900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>257200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>270200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>266000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>246900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>264000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>223400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>249000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>228000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>230100</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>201200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>219800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>195600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E9" s="3">
+        <v>226300</v>
+      </c>
+      <c r="F9" s="3">
         <v>216100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>225600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>222300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>217300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>143900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>151400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>206600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>188600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>194400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>195400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>179600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>190600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>163300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>187100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>167900</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>167300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>145600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>164500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>142200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>153700</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>70300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>69200</v>
+      </c>
+      <c r="F10" s="3">
         <v>71700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>75400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>73000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>83500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>47000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>59200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>79300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>68600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>75800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>70600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>67300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>73400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>60100</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>61900</v>
       </c>
       <c r="R10" s="3">
         <v>60100</v>
       </c>
       <c r="S10" s="3">
+        <v>61900</v>
+      </c>
+      <c r="T10" s="3">
+        <v>60100</v>
+      </c>
+      <c r="U10" s="3">
         <v>62800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>55600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>55300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>53400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,8 +1005,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1044,8 +1072,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1109,31 +1143,37 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-2300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-2000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>8</v>
@@ -1141,41 +1181,47 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>3800</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>10900</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>600</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
         <v>4200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>2600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1189,16 +1235,16 @@
         <v>4800</v>
       </c>
       <c r="G15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="H15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I15" s="3">
         <v>5000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>4700</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4800</v>
       </c>
       <c r="K15" s="3">
         <v>4700</v>
@@ -1207,40 +1253,46 @@
         <v>4800</v>
       </c>
       <c r="M15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O15" s="3">
         <v>5000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>5500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>3700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>1900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="3">
         <v>1900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="3">
         <v>2000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="3">
         <v>1100</v>
       </c>
-      <c r="T15" s="3">
+      <c r="V15" s="3">
         <v>600</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1261,138 +1313,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>258700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>260200</v>
+      </c>
+      <c r="F17" s="3">
         <v>251800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>265100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>257200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>252500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>174200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>174300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>244400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>226500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>231600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>233000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>220900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>244900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>194700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>221400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>192400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>200400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>175800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>193800</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>166500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>32900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>35300</v>
+      </c>
+      <c r="F18" s="3">
         <v>36000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>35900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>38100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>48300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>16700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>36300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>41500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>30700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>38600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>33000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>26000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>19100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>28700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>27600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>35600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>29700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>25400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>26000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>29100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>29100</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1416,182 +1482,196 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>5900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>4900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>1000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-2900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-1500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>3200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>3500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1900</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>1200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>47900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>47400</v>
+      </c>
+      <c r="F21" s="3">
         <v>48500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>50800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>51300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>60200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>29300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>54500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>58700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>43600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>50300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>42800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>39900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>27600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>36600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>38900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>46200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>36400</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>30400</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>34600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>36200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>700</v>
+      </c>
+      <c r="E22" s="3">
         <v>1100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>1300</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>1400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>1600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>2100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>2400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>2700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>2900</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1611,138 +1691,156 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>33000</v>
+      </c>
+      <c r="F23" s="3">
         <v>34800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>36600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>36500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>46200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>15600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>40100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>44000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>29000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>35600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>30100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>27700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>17600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>28200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>30800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>39100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>29100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>24800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>27900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>30300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>5700</v>
+        <v>4100</v>
       </c>
       <c r="E24" s="3">
         <v>5500</v>
       </c>
       <c r="F24" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G24" s="3">
+        <v>5500</v>
+      </c>
+      <c r="H24" s="3">
         <v>4600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>7600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-5100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>2800</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>5200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>7300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>7500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>3000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>4500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>-2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>6600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>4900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>4300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>4700</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>6600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1806,138 +1904,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F26" s="3">
         <v>29100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>31100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>31900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>38600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>20700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>30100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>41200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>23800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>28300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>22600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>25900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>14600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>23700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>33700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>32500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>24200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>20500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>23200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>23700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F27" s="3">
         <v>29100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>31100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>31900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>38600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>20700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>30100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>41200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>23800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>28300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>22600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>25900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>14600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>23700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>33700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>32500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>24200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>20500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>23200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>23700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2001,8 +2117,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2033,29 +2155,29 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
         <v>4800</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="3">
         <v>3100</v>
       </c>
-      <c r="R29" s="3">
+      <c r="T29" s="3">
         <v>-56800</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
@@ -2066,8 +2188,14 @@
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2131,8 +2259,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2196,138 +2330,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-5900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-4900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-1000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>2900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>1500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-3200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-3500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1900</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-1200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F33" s="3">
         <v>29100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>31100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>31900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>38600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>20700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>30100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>41200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>23800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>28300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>22600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>30700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>14600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>23700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>36800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-24300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>24200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>20500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>23200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>23700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2391,143 +2543,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F35" s="3">
         <v>29100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>31100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>31900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>38600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>20700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>30100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>41200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>23800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>28300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>22600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>30700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>14600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>23700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>36800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-24300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>24200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>20500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>23200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>23700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44317</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44226</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44044</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43953</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43862</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43764</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43673</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43582</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43491</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43400</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43309</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43218</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43127</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43036</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42945</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42854</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42763</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2551,8 +2721,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2576,73 +2748,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>153100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>177200</v>
+      </c>
+      <c r="F41" s="3">
         <v>207900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>233200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>218700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>242300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>211000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>217300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>79900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>95600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>73800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>83200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>73700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>110900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>228500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>246100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>304000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>258600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>297900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>294000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>268800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>249600</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2706,268 +2886,298 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>299400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>295000</v>
+      </c>
+      <c r="F43" s="3">
         <v>290000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>294000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>284000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>301100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>246600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>201400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>237600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>217300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>246500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>233600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>226200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>240200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>191000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>205000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>202000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>216000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>165100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>165900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>153800</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>149000</v>
+      </c>
+      <c r="F44" s="3">
         <v>142400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>124200</v>
-      </c>
-      <c r="F44" s="3">
-        <v>124000</v>
-      </c>
-      <c r="G44" s="3">
-        <v>120700</v>
       </c>
       <c r="H44" s="3">
         <v>124000</v>
       </c>
       <c r="I44" s="3">
+        <v>120700</v>
+      </c>
+      <c r="J44" s="3">
+        <v>124000</v>
+      </c>
+      <c r="K44" s="3">
         <v>131000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>126100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>133800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>122000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>116700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>124000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>118300</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>88500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>84100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>83600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>78400</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>64800</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>57900</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>62000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E45" s="3">
+        <v>21900</v>
+      </c>
+      <c r="F45" s="3">
         <v>20600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>22600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>18300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>18200</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>16400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>15900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>20300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>18700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>19000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>20000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>22500</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>21700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>15900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>14800</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>15700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>15900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>19100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>12500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>14500</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>640400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>643100</v>
+      </c>
+      <c r="F46" s="3">
         <v>660900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>674000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>645000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>682300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>598000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>565600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>463900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>465400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>461300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>453500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>446400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>491100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>523900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>550000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>605300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>568900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>546900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>530300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>499100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>497100</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3031,138 +3241,156 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>218600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>228400</v>
+      </c>
+      <c r="F48" s="3">
         <v>235200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>226300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>228700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>226700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>230700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>225400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>226300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>226700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>222500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>191900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>189100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>187900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>165300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>162200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>153700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>126900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>117400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>90600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>87700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>447300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>454100</v>
+      </c>
+      <c r="F49" s="3">
         <v>459300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>465000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>468500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>470300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>475400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>476400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>484200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>489400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>493400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>498200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>504400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>509000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>117000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>120200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>125200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>123400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>36100</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>8200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>8800</v>
       </c>
-      <c r="W49" s="3">
+      <c r="Y49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3226,8 +3454,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3291,73 +3525,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>105000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>105100</v>
+      </c>
+      <c r="F52" s="3">
         <v>103600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>101700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>102300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>110000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>114100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>103200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>107900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>101200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>91700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>88100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>86300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>82500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>86600</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>83500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>75600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>79100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>83000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>74900</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>71400</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3421,73 +3667,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1411300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1430700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1459000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1467000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1444500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1489300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1418200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1370600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1282300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1282700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1268900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1231700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1226200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1270500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>892800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>915900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>959800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>898300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>783400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>704000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>667000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>666500</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3511,8 +3769,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3536,87 +3796,95 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>118600</v>
+      </c>
+      <c r="F57" s="3">
         <v>110800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>122900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>117800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>112400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>83200</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>73800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>88800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>97100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>90700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>91900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>88600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>105600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>79000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>89500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>87900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>99300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>81200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>75300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>67700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F58" s="3">
         <v>14800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>14900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>15400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>15300</v>
       </c>
       <c r="H58" s="3">
         <v>15400</v>
@@ -3625,309 +3893,339 @@
         <v>15300</v>
       </c>
       <c r="J58" s="3">
+        <v>15400</v>
+      </c>
+      <c r="K58" s="3">
+        <v>15300</v>
+      </c>
+      <c r="L58" s="3">
         <v>15100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>15200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>15400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>15700</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>15200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>15300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>3900</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>4400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>2900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>2300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>3800</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>74600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>74500</v>
+      </c>
+      <c r="F59" s="3">
         <v>78500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>84900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>76000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>71000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>61400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>54700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>59700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>72000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>74700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>73300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>72600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>71300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>53900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>63100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>59500</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>50700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>41500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>49100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>43500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>203700</v>
+      </c>
+      <c r="E60" s="3">
+        <v>207800</v>
+      </c>
+      <c r="F60" s="3">
         <v>204100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>222700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>209200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>198700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>160000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>143800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>163600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>184300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>180800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>180900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>176400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>192200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>136800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>157000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>150300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>152300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>126500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>124400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>111200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>113900</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>202400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>208400</v>
+      </c>
+      <c r="F61" s="3">
         <v>220600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>225200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>229200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>332300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>334400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>336800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>241900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>259900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>267700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>276900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>287700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>342300</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>49200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>53400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>116000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>105500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>47600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>27000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>37000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>88800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>95000</v>
+      </c>
+      <c r="F62" s="3">
         <v>100000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>101100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>108500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>106900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>110000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>106600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>103900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>105900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>106100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>84200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>88000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>92700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>74600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>75500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>86300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>33700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>19900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>11500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>10900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3991,8 +4289,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4056,8 +4360,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4121,73 +4431,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>494900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>511200</v>
+      </c>
+      <c r="F66" s="3">
         <v>524700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>549000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>546900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>637900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>604400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>587200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>509400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>550100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>554600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>542000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>552100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>627200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>260600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>285900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>352600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>291500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>194000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>162900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>159100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4211,8 +4533,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4276,8 +4600,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4341,8 +4671,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4406,8 +4742,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4471,73 +4813,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>752900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>749800</v>
+      </c>
+      <c r="F72" s="3">
         <v>761900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>746000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>726600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>698900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>664600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>651900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>625600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>588500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>568900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>545200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>526700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>500000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>490000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>472000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>439200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>467400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>446600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>427000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>407200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>387200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4601,8 +4955,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4666,8 +5026,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4731,73 +5097,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>916400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>919500</v>
+      </c>
+      <c r="F76" s="3">
         <v>934300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>918000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>897600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>851400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>813800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>783400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>772900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>732600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>714300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>689700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>674100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>643300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>632200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>630000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>607200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>606800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>589400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>541100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>507900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>492800</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4861,143 +5239,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44590</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44499</v>
+      </c>
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44317</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44226</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44044</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43953</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43862</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43764</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43673</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43582</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43491</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43400</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43309</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43218</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43127</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43036</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42945</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42854</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42763</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>27500</v>
+      </c>
+      <c r="F81" s="3">
         <v>29100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>31100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>31900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>38600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>20700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>30100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>41200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>23800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>28300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>22600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>30700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>14600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>23700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>36800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-24300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>24200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>20500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>23200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>23700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5021,73 +5417,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12600</v>
+        <v>13700</v>
       </c>
       <c r="E83" s="3">
         <v>13300</v>
       </c>
       <c r="F83" s="3">
+        <v>12600</v>
+      </c>
+      <c r="G83" s="3">
+        <v>13300</v>
+      </c>
+      <c r="H83" s="3">
         <v>13500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>12600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>12100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>12300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>12300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>11900</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>11800</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>12700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>12200</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>10000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>8400</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>8100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>7100</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>7300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>5600</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>6700</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>5900</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>5900</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5151,8 +5555,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5216,8 +5626,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5281,8 +5697,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5346,8 +5768,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5411,73 +5839,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F89" s="3">
         <v>9700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>36000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>87100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>40300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>16400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>58000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>14800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>48700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>19100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>37700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>28100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>16200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>20000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>30700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>41900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>21600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>23600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>38500</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>43000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5501,73 +5941,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-4800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-4900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-3600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-11600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-10200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-8100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-13600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-13200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-12800</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-8400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-10400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-13000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-18300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-8400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-8000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-9200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-3700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5631,8 +6079,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5696,73 +6150,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-15400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-4800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-3600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-11600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-10100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-8200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-13000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-13200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-12500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-8800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-431300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-18200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-14000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-19000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-116100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-29900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-8500</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-3700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5786,73 +6252,81 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-5200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="G96" s="3">
         <v>-4200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-4100</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-4100</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-5000</v>
       </c>
       <c r="I96" s="3">
         <v>-4100</v>
       </c>
       <c r="J96" s="3">
-        <v>-4000</v>
+        <v>-5000</v>
       </c>
       <c r="K96" s="3">
         <v>-4100</v>
       </c>
       <c r="L96" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="M96" s="3">
         <v>-4100</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-3600</v>
       </c>
       <c r="N96" s="3">
         <v>-4100</v>
       </c>
       <c r="O96" s="3">
-        <v>-4500</v>
+        <v>-3600</v>
       </c>
       <c r="P96" s="3">
         <v>-4100</v>
       </c>
       <c r="Q96" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="R96" s="3">
         <v>-4100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-3400</v>
       </c>
       <c r="U96" s="3">
         <v>-3400</v>
       </c>
       <c r="V96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="W96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="X96" s="3">
         <v>-3700</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5916,8 +6390,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5981,8 +6461,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6046,199 +6532,223 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-34100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-51400</v>
+      </c>
+      <c r="F100" s="3">
         <v>-18300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-15100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-108600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-6200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-13000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>91400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-23000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-12300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-14400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-14900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-58800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>300500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-70300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>6400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>56900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-5700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-9000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-14500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-1600</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>2700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>1900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1900</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>2300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-3000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-4300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>16100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1700</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>15900</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>4200</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>-5600</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>-5600</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-25300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>14500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-23600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>31300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-6300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>137400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-15700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>21800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-9400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>9500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-37200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-117600</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-57900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>45400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-39300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>3900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>25200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>19200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
   <si>
     <t>MEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,323 +665,335 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44590</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44499</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44317</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44226</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44044</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43953</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43862</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43764</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43673</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43582</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43491</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43400</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43309</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43218</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43127</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43036</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42945</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42854</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42763</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>288700</v>
+      </c>
+      <c r="E8" s="3">
         <v>291600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>295500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>287800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>301000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>295300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>190900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>210600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>285900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>257200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>270200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>266000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>246900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>264000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>223400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>249000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>228000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>230100</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>201200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>219800</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>195600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>233700</v>
+      </c>
+      <c r="E9" s="3">
         <v>221300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>226300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>216100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>225600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>222300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>217300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>143900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>151400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>206600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>188600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>194400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>195400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>179600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>190600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>163300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>187100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>167900</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>167300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>145600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>164500</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>142200</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>153700</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E10" s="3">
         <v>70300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>69200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>71700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>75400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>73000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>83500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>47000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>59200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>79300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>68600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>75800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>70600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>67300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>73400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>60100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>61900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>60100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>62800</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>55600</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>55300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>53400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1007,8 +1019,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1078,8 +1091,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1149,34 +1165,37 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-2100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-1900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>500</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
@@ -1187,46 +1206,49 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>3800</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>10900</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>600</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>4200</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>2600</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>8</v>
+      <c r="X14" s="3">
+        <v>0</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="E15" s="3">
         <v>4800</v>
@@ -1241,49 +1263,49 @@
         <v>4800</v>
       </c>
       <c r="I15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J15" s="3">
         <v>5000</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4700</v>
       </c>
       <c r="K15" s="3">
         <v>4700</v>
       </c>
       <c r="L15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="M15" s="3">
         <v>4800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>4700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>5000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>3700</v>
-      </c>
-      <c r="R15" s="3">
-        <v>1900</v>
       </c>
       <c r="S15" s="3">
         <v>1900</v>
       </c>
       <c r="T15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U15" s="3">
         <v>2000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>1100</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>600</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X15" s="3" t="s">
         <v>8</v>
@@ -1291,8 +1313,11 @@
       <c r="Y15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1315,150 +1340,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>271200</v>
+      </c>
+      <c r="E17" s="3">
         <v>258700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>260200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>251800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>265100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>257200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>252500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>174200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>174300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>244400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>226500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>231600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>233000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>220900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>244900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>194700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>221400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>192400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>175800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>193800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>166500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E18" s="3">
         <v>32900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>35300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>36000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>35900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>38100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>48300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>16700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>36300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>41500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>30700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>38600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>33000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>26000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>19100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>28700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>27600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>35600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>29700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>25400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>26000</v>
-      </c>
-      <c r="X18" s="3">
-        <v>29100</v>
       </c>
       <c r="Y18" s="3">
         <v>29100</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1484,188 +1516,195 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>3200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3500</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-600</v>
       </c>
       <c r="V20" s="3">
         <v>-600</v>
       </c>
       <c r="W20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X20" s="3">
         <v>1900</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>30800</v>
+      </c>
+      <c r="E21" s="3">
         <v>47900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>47400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>48500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>50800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>51300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>60200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>29300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>54500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>58700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>43600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>50300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>42800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>39900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>27600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>36600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>38900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>46200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>36400</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>30400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>34600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>36200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>600</v>
+      </c>
+      <c r="E22" s="3">
         <v>700</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1100</v>
       </c>
       <c r="F22" s="3">
         <v>1100</v>
       </c>
       <c r="G22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H22" s="3">
         <v>900</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1400</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1600</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2900</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1673,8 +1712,8 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1697,150 +1736,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E23" s="3">
         <v>33500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>33000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>34800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>36600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>36500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>46200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>15600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>40100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>44000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>29000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>35600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>30100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>27700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>17600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>28200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>30800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>39100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>29100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>24800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>27900</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>30300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>7600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-5100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>5200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>3000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>4500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>6600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4300</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4700</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1910,150 +1958,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E26" s="3">
         <v>29400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>29100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>31100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>31900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>38600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>20700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>30100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>41200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>23800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>28300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>22600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>25900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>14600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>33700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>32500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>24200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>20500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>23200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>23700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E27" s="3">
         <v>29400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>29100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>31100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>38600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>20700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>30100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>41200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>23800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>28300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>22600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>25900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>14600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>33700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>32500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>24200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>20500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>23700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2123,31 +2180,34 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -2161,26 +2221,26 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
         <v>4800</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" s="3">
         <v>3100</v>
       </c>
-      <c r="T29" s="3">
+      <c r="U29" s="3">
         <v>-56800</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
@@ -2194,8 +2254,11 @@
       <c r="Y29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2265,8 +2328,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2336,150 +2402,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-3200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="U32" s="3">
-        <v>600</v>
       </c>
       <c r="V32" s="3">
         <v>600</v>
       </c>
       <c r="W32" s="3">
+        <v>600</v>
+      </c>
+      <c r="X32" s="3">
         <v>-1900</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E33" s="3">
         <v>29400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>29100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>31100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>38600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>20700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>30100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>41200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>23800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>28300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>22600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>30700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>14600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>36800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-24300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>24200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>20500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>23700</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2549,155 +2624,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E35" s="3">
         <v>29400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>29100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>31100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>38600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>20700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>30100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>41200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>23800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>28300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>22600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>30700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>14600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>36800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-24300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>24200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>20500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>23700</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44590</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44499</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44317</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44226</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44044</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43953</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43862</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43764</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43673</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43582</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43491</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43400</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43309</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43218</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43127</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43036</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42945</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42854</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42763</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2723,8 +2807,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2750,79 +2835,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>172000</v>
+      </c>
+      <c r="E41" s="3">
         <v>153100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>177200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>207900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>233200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>218700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>242300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>211000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>217300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>79900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>95600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>73800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>83200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>73700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>110900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>228500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>246100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>304000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>258600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>297900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>294000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>268800</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>249600</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2892,292 +2981,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>281600</v>
+      </c>
+      <c r="E43" s="3">
         <v>299400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>295000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>290000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>294000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>284000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>301100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>246600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>201400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>237600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>217300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>246500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>233600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>226200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>240200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>191000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>205000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>202000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>216000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>165100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>165900</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>153800</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>158500</v>
+      </c>
+      <c r="E44" s="3">
         <v>167000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>149000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>142400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>124200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>124000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>120700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>124000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>131000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>126100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>133800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>122000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>116700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>124000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>118300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>88500</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>84100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>83600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>78400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>64800</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>57900</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>62000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>16900</v>
+      </c>
+      <c r="E45" s="3">
         <v>20900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>22600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>20300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>19000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>22500</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>15900</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>14800</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>19100</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>12500</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>14500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>629000</v>
+      </c>
+      <c r="E46" s="3">
         <v>640400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>643100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>660900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>674000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>645000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>682300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>598000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>565600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>463900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>465400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>461300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>453500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>446400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>491100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>523900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>550000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>605300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>568900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>546900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>530300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>499100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>497100</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3247,150 +3351,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E48" s="3">
         <v>218600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>228400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>235200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>226300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>228700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>226700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>230700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>225400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>226300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>226700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>222500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>191900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>189100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>187900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>165300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>162200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>153700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>126900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>117400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>90600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>87700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>440700</v>
+      </c>
+      <c r="E49" s="3">
         <v>447300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>454100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>459300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>465000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>468500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>470300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>475400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>476400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>484200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>489400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>493400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>498200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>504400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>509000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>117000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>120200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>125200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>123400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>36100</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>8800</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3460,8 +3573,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3531,79 +3647,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>102400</v>
+      </c>
+      <c r="E52" s="3">
         <v>105000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>105100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>103600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>101700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>102300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>110000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>114100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>103200</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>107900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>101200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>91700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>88100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>86300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>82500</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>86600</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>83500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>75600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>79100</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>83000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>74900</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>71400</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3673,79 +3795,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1389100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1411300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1430700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1459000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1467000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1444500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1489300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1418200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1370600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1282300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1282700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1268900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1231700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1226200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1270500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>892800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>915900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>959800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>898300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>783400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>704000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>667000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>666500</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3771,8 +3899,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3798,141 +3927,145 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>108500</v>
+      </c>
+      <c r="E57" s="3">
         <v>115900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>118600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>110800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>122900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>117800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>112400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>83200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>73800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>88800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>97100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>90700</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>91900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>88600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>105600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>79000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>89500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>87900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>99300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>81200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>75300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>67700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E58" s="3">
         <v>13200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>14700</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>15400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15200</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15700</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15300</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>3900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>4400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>2900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3800</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X58" s="3" t="s">
         <v>8</v>
@@ -3940,292 +4073,307 @@
       <c r="Y58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E59" s="3">
         <v>74600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>78500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>84900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>76000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>71000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>61400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>54700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>59700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>72000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>74700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>73300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>72600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>71300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>53900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>63100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>59500</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>50700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>41500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>49100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>43500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>188600</v>
+      </c>
+      <c r="E60" s="3">
         <v>203700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>207800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>204100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>222700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>209200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>198700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>160000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>143800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>163600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>184300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>180800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>180900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>176400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>192200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>136800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>157000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>150300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>152300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>126500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>124400</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>111200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>113900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>197500</v>
+      </c>
+      <c r="E61" s="3">
         <v>202400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>208400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>220600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>225200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>229200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>332300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>334400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>336800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>241900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>259900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>267700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>276900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>287700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>342300</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>49200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>53400</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>116000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>105500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>47600</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>27000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>37000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>89200</v>
+      </c>
+      <c r="E62" s="3">
         <v>88800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>95000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>100000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>101100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>108500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>106900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>110000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>106600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>103900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>105900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>106100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>84200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>88000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>92700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>74600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>75500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>86300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>33700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>19900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>11500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>10900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4295,8 +4443,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4366,8 +4517,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4437,79 +4591,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>475300</v>
+      </c>
+      <c r="E66" s="3">
         <v>494900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>511200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>524700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>549000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>546900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>637900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>604400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>587200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>509400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>550100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>554600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>542000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>552100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>627200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>260600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>285900</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>352600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>291500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>194000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>162900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>159100</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4535,8 +4695,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4606,8 +4767,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4677,8 +4841,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4748,8 +4915,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4819,79 +4989,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>763900</v>
+      </c>
+      <c r="E72" s="3">
         <v>752900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>749800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>761900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>746000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>726600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>698900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>664600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>651900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>625600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>588500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>568900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>545200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>526700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>500000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>490000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>472000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>439200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>467400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>446600</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>427000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>407200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>387200</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4961,8 +5137,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5032,8 +5211,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5103,79 +5285,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>913800</v>
+      </c>
+      <c r="E76" s="3">
         <v>916400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>919500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>934300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>918000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>897600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>851400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>813800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>783400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>772900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>732600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>714300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>689700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>674100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>643300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>632200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>630000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>607200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>606800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>589400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>541100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>507900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>492800</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5245,155 +5433,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44590</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44499</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44317</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44226</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44044</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43953</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43862</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43764</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43673</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43582</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43491</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43400</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43309</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43218</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43127</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43036</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42945</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42854</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42763</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E81" s="3">
         <v>29400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>29100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>31100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>38600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>20700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>30100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>41200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>23800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>28300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>22600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>30700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>14600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>36800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-24300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>24200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>20500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>23700</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5419,79 +5616,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E83" s="3">
         <v>13700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12100</v>
-      </c>
-      <c r="K83" s="3">
-        <v>12300</v>
       </c>
       <c r="L83" s="3">
         <v>12300</v>
       </c>
       <c r="M83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="N83" s="3">
         <v>11900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12200</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>8400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8100</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>7100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5600</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>6700</v>
-      </c>
-      <c r="X83" s="3">
-        <v>5900</v>
       </c>
       <c r="Y83" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5561,8 +5762,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5632,8 +5836,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5703,8 +5910,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5774,8 +5984,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5845,79 +6058,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E89" s="3">
         <v>20100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>27000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>36000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>87100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>40300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>16400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>58000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>14800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>48700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>19100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>37700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>28100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>16200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>20000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>30700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>41900</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>21600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>23600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>38500</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>43000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5943,79 +6162,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-4800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-3600</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-11600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-10200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-8100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-13600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-12800</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-10400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-18200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-18300</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-9200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6085,8 +6308,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6156,79 +6382,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-5300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-15400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-4800</v>
       </c>
       <c r="H94" s="3">
         <v>-4800</v>
       </c>
       <c r="I94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="J94" s="3">
         <v>-3600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-11600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-10100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-8200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-13000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-12500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-431300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-18200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-19000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-116100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-29900</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-8500</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6254,64 +6486,65 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="E96" s="3">
         <v>-5100</v>
       </c>
       <c r="F96" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="G96" s="3">
         <v>-5200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-4200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-4100</v>
       </c>
       <c r="I96" s="3">
         <v>-4100</v>
       </c>
       <c r="J96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5000</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4000</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-4100</v>
       </c>
       <c r="N96" s="3">
         <v>-4100</v>
       </c>
       <c r="O96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="P96" s="3">
         <v>-3600</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-4500</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-4100</v>
       </c>
       <c r="S96" s="3">
         <v>-4100</v>
       </c>
       <c r="T96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="U96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-3400</v>
       </c>
       <c r="V96" s="3">
         <v>-3400</v>
@@ -6320,13 +6553,16 @@
         <v>-3400</v>
       </c>
       <c r="X96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-3700</v>
       </c>
-      <c r="Y96" s="3">
+      <c r="Z96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6396,8 +6632,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6467,8 +6706,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6538,217 +6780,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-10800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-34100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-51400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-18300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-108600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-13000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>91400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-23000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-12300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-14400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-58800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>300500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-9400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-70300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>56900</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-5700</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-14500</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1600</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>2700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>1900</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1600</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>2300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-3000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-10000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-4300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>16100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1700</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>15900</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>4200</v>
-      </c>
-      <c r="X101" s="3">
-        <v>-5600</v>
       </c>
       <c r="Y101" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-24100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-30700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-25300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>14500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-23600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>31300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-6300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>137400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-15700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>21800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-9400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>9500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-117600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-17600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-57900</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>45400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-39300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>3900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>25200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>19200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>MEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,335 +665,348 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44590</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44499</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44317</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44226</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44044</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43953</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43862</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43764</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43673</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43582</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43491</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43400</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43309</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43218</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43127</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43036</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42945</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42854</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42763</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>282400</v>
+      </c>
+      <c r="E8" s="3">
         <v>288700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>291600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>295500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>287800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>301000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>295300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>300800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>190900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>210600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>285900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>257200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>270200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>266000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>246900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>264000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>223400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>249000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>228000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>230100</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>201200</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>219800</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>195600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>220600</v>
+      </c>
+      <c r="E9" s="3">
         <v>233700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>221300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>226300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>216100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>225600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>222300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>217300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>143900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>151400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>206600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>188600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>194400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>195400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>179600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>190600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>163300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>187100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>167900</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>167300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>145600</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>164500</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>142200</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>153700</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>61800</v>
+      </c>
+      <c r="E10" s="3">
         <v>55000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>70300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>69200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>71700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>75400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>73000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>83500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>47000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>59200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>79300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>68600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>75800</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>70600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>67300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>73400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>60100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>61900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>60100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>62800</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>55600</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>55300</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>53400</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1020,8 +1033,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1094,8 +1108,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1168,37 +1185,40 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E14" s="3">
         <v>-2600</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-2100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2300</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>500</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1209,41 +1229,44 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>3800</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>10900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>600</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>4200</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>2600</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>8</v>
+      <c r="Y14" s="3">
+        <v>0</v>
       </c>
       <c r="Z14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1251,7 +1274,7 @@
         <v>4700</v>
       </c>
       <c r="E15" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="F15" s="3">
         <v>4800</v>
@@ -1266,49 +1289,49 @@
         <v>4800</v>
       </c>
       <c r="J15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K15" s="3">
         <v>5000</v>
-      </c>
-      <c r="K15" s="3">
-        <v>4700</v>
       </c>
       <c r="L15" s="3">
         <v>4700</v>
       </c>
       <c r="M15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="N15" s="3">
         <v>4800</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>4700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>5000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>3700</v>
-      </c>
-      <c r="S15" s="3">
-        <v>1900</v>
       </c>
       <c r="T15" s="3">
         <v>1900</v>
       </c>
       <c r="U15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="V15" s="3">
         <v>2000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>1100</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>600</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>8</v>
@@ -1316,8 +1339,11 @@
       <c r="Z15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1341,156 +1367,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>256500</v>
+      </c>
+      <c r="E17" s="3">
         <v>271200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>258700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>260200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>251800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>265100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>257200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>252500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>174200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>174300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>244400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>226500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>231600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>233000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>220900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>244900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>194700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>221400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>192400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>200400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>175800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>193800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>166500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E18" s="3">
         <v>17500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>32900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>35300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>36000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>35900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>38100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>48300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>16700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>36300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>41500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>30700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>38600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>33000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>26000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>19100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>28700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>27600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>35600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>29700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>25400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>26000</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>29100</v>
       </c>
       <c r="Z18" s="3">
         <v>29100</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1517,197 +1550,204 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-1200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>5900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>4900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>3200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3500</v>
-      </c>
-      <c r="V20" s="3">
-        <v>-600</v>
       </c>
       <c r="W20" s="3">
         <v>-600</v>
       </c>
       <c r="X20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y20" s="3">
         <v>1900</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>1200</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>38200</v>
+      </c>
+      <c r="E21" s="3">
         <v>30800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>47900</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>47400</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>48500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>50800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>51300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>60200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>29300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>54500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>58700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>43600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>50300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>42800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>39900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>27600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>36600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>38900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>46200</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>36400</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>30400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>34600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>36200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>700</v>
-      </c>
-      <c r="F22" s="3">
-        <v>1100</v>
       </c>
       <c r="G22" s="3">
         <v>1100</v>
       </c>
       <c r="H22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I22" s="3">
         <v>900</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>1300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1600</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>2100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2900</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1715,8 +1755,8 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1739,156 +1779,165 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E23" s="3">
         <v>17200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>33500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>34800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>36600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>36500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>46200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>15600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>40100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>44000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>29000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>35600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>30100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>27700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>17600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>28200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>30800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>39100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>29100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>24800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>27900</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>30300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-5100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2800</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>5200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>7300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>3000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>4500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-2900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>6600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4300</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4700</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1961,156 +2010,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E26" s="3">
         <v>16200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>29400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>31100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>38600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>20700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>30100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>41200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>23800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>28300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>22600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>25900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>14600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>23700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>33700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>32500</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>24200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>20500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>23200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>23700</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E27" s="3">
         <v>16200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>29400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>29100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>31100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>38600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>20700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>30100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>41200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>23800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>28300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>22600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>25900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>14600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>23700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>33700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>32500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>24200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>20500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>23200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>23700</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2183,8 +2241,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2209,8 +2270,8 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -2224,26 +2285,26 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
         <v>4800</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U29" s="3">
         <v>3100</v>
       </c>
-      <c r="U29" s="3">
+      <c r="V29" s="3">
         <v>-56800</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
@@ -2257,8 +2318,11 @@
       <c r="Z29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2331,8 +2395,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2405,156 +2472,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>1200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-5900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-4900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-3200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="V32" s="3">
-        <v>600</v>
       </c>
       <c r="W32" s="3">
         <v>600</v>
       </c>
       <c r="X32" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E33" s="3">
         <v>16200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>29400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>29100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>31100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>38600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>20700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>30100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>41200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>23800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>28300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>22600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>30700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>14600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>23700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>36800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-24300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>24200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>20500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>23200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>23700</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2627,161 +2703,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E35" s="3">
         <v>16200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>29400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>29100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>31100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>38600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>20700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>30100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>41200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>23800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>28300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>22600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>30700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>14600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>23700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>36800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-24300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>24200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>20500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>23200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>23700</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44590</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44499</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44317</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44226</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44044</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43953</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43862</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43764</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43673</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43582</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43491</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43400</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43309</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43218</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43127</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43036</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42945</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42854</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42763</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2808,8 +2893,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2836,82 +2922,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>152400</v>
+      </c>
+      <c r="E41" s="3">
         <v>172000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>153100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>177200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>207900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>233200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>218700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>242300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>211000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>217300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>79900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>95600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>73800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>83200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>73700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>110900</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>228500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>246100</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>304000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>258600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>297900</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>294000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>268800</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>249600</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2984,304 +3074,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>289700</v>
+      </c>
+      <c r="E43" s="3">
         <v>281600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>299400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>295000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>290000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>294000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>284000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>301100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>246600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>201400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>237600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>217300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>246500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>233600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>226200</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>240200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>191000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>205000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>202000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>216000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>165100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>165900</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>153800</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>173900</v>
+      </c>
+      <c r="E44" s="3">
         <v>158500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>167000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>149000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>142400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>124200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>124000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>120700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>124000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>131000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>126100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>133800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>122000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>116700</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>124000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>118300</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>88500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>84100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>83600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>78400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>64800</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>57900</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>62000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>23100</v>
+      </c>
+      <c r="E45" s="3">
         <v>16900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>20900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>22600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>18300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>15900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>20300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>19000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>22500</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>15900</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>14800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>15900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>19100</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>12500</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>14500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>639100</v>
+      </c>
+      <c r="E46" s="3">
         <v>629000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>640400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>643100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>660900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>674000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>645000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>682300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>598000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>565600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>463900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>465400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>461300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>453500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>446400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>491100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>523900</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>550000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>605300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>568900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>546900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>530300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>499100</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>497100</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3354,156 +3459,165 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>212800</v>
+      </c>
+      <c r="E48" s="3">
         <v>217000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>218600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>228400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>235200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>226300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>228700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>226700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>230700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>225400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>226300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>226700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>222500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>191900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>189100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>187900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>165300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>162200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>153700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>126900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>117400</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>90600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>87700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>435300</v>
+      </c>
+      <c r="E49" s="3">
         <v>440700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>447300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>454100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>459300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>465000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>468500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>470300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>475400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>476400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>484200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>489400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>493400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>498200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>504400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>509000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>117000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>120200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>125200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>123400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>36100</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>8200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>8800</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3576,8 +3690,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3650,82 +3767,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>102700</v>
+      </c>
+      <c r="E52" s="3">
         <v>102400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>105000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>105100</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>103600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>101700</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>102300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>110000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>114100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>103200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>107900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>101200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>91700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>88100</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>86300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>82500</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>86600</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>83500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>75600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>79100</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>83000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>74900</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>71400</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3798,82 +3921,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1389900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1389100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1411300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1430700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1459000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1467000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1444500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1489300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1418200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1370600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1282300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1282700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1268900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1231700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1226200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1270500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>892800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>915900</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>959800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>898300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>783400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>704000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>667000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>666500</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3900,8 +4029,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3928,82 +4058,86 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>116400</v>
+      </c>
+      <c r="E57" s="3">
         <v>108500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>115900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>118600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>110800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>122900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>117800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>112400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>83200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>73800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>88800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>97100</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>90700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>91900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>88600</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>105600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>79000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>89500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>87900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>99300</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>81200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>75300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>67700</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4011,64 +4145,64 @@
         <v>13000</v>
       </c>
       <c r="E58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F58" s="3">
         <v>13200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>14700</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>15400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15300</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15700</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15300</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>3900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>4400</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>2900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3800</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y58" s="3" t="s">
         <v>8</v>
@@ -4076,304 +4210,319 @@
       <c r="Z58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E59" s="3">
         <v>67100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>78500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>84900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>76000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>71000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>61400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>54700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>59700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>72000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>74700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>73300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>72600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>71300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>53900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>63100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>59500</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>50700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>41500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>49100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>43500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>195800</v>
+      </c>
+      <c r="E60" s="3">
         <v>188600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>203700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>207800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>204100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>222700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>209200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>198700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>160000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>143800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>163600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>184300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>180800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>180900</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>176400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>192200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>136800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>157000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>150300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>152300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>126500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>124400</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>111200</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>113900</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>194200</v>
+      </c>
+      <c r="E61" s="3">
         <v>197500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>202400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>208400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>220600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>225200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>229200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>332300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>334400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>336800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>241900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>259900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>267700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>276900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>287700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>342300</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>49200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>53400</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>116000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>105500</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>47600</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>27000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>37000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>88500</v>
+      </c>
+      <c r="E62" s="3">
         <v>89200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>88800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>95000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>100000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>101100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>108500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>106900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>110000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>106600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>103900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>105900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>106100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>84200</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>88000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>92700</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>74600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>75500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>86300</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>33700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>19900</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>11500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>10900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4446,8 +4595,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4520,8 +4672,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4594,82 +4749,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>478500</v>
+      </c>
+      <c r="E66" s="3">
         <v>475300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>494900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>511200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>524700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>549000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>546900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>637900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>604400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>587200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>509400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>550100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>554600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>542000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>552100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>627200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>260600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>285900</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>352600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>291500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>194000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>162900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>159100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4696,8 +4857,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4770,8 +4932,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4844,8 +5009,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4918,8 +5086,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4992,82 +5163,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>768100</v>
+      </c>
+      <c r="E72" s="3">
         <v>763900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>752900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>749800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>761900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>746000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>726600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>698900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>664600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>651900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>625600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>588500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>568900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>545200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>526700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>500000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>490000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>472000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>439200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>467400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>446600</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>427000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>407200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>387200</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5140,8 +5317,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5214,8 +5394,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5288,82 +5471,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>911400</v>
+      </c>
+      <c r="E76" s="3">
         <v>913800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>916400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>919500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>934300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>918000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>897600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>851400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>813800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>783400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>772900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>732600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>714300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>689700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>674100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>643300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>632200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>630000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>607200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>606800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>589400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>541100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>507900</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>492800</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5436,161 +5625,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44772</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44590</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44499</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44317</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44226</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44044</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43953</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43862</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43764</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43673</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43582</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43491</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43400</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43309</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43218</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43127</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43036</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42945</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42854</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42763</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>21500</v>
+      </c>
+      <c r="E81" s="3">
         <v>16200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>29400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>29100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>31100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>38600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>20700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>30100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>41200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>23800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>28300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>22600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>30700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>14600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>23700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>36800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-24300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>24200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>20500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>23200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>23700</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5617,82 +5815,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E83" s="3">
         <v>13000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13500</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12100</v>
-      </c>
-      <c r="L83" s="3">
-        <v>12300</v>
       </c>
       <c r="M83" s="3">
         <v>12300</v>
       </c>
       <c r="N83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="O83" s="3">
         <v>11900</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>12700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12200</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>10000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>8400</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8100</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>7100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7300</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>5600</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>6700</v>
-      </c>
-      <c r="Y83" s="3">
-        <v>5900</v>
       </c>
       <c r="Z83" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5765,8 +5967,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5839,8 +6044,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5913,8 +6121,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5987,8 +6198,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6061,82 +6275,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E89" s="3">
         <v>42000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>27000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>36000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>87100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>40300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>16400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>58000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>48700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>19100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>37700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>28100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>16200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>20000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>30700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>41900</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>21600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>23600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>38500</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>43000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6163,82 +6383,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8300</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-4800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-3600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-10200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-8100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-13600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-12800</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-10400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-18200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-13000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-18300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-8400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-9200</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6311,8 +6535,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6385,82 +6612,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-9600</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-5300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-15400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-4800</v>
       </c>
       <c r="I94" s="3">
         <v>-4800</v>
       </c>
       <c r="J94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-11600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-10100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-8200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-13000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-12500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-431300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-18200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-19000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-116100</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-29900</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-8500</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6487,8 +6720,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6496,58 +6730,58 @@
         <v>-5000</v>
       </c>
       <c r="E96" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="F96" s="3">
         <v>-5100</v>
       </c>
       <c r="G96" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="H96" s="3">
         <v>-5200</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-4200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-4100</v>
       </c>
       <c r="J96" s="3">
         <v>-4100</v>
       </c>
       <c r="K96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-5000</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4000</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-4100</v>
       </c>
       <c r="O96" s="3">
         <v>-4100</v>
       </c>
       <c r="P96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-4100</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-4500</v>
-      </c>
-      <c r="S96" s="3">
-        <v>-4100</v>
       </c>
       <c r="T96" s="3">
         <v>-4100</v>
       </c>
       <c r="U96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="V96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-3400</v>
       </c>
       <c r="W96" s="3">
         <v>-3400</v>
@@ -6556,13 +6790,16 @@
         <v>-3400</v>
       </c>
       <c r="Y96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-3700</v>
       </c>
-      <c r="Z96" s="3">
+      <c r="AA96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6635,8 +6872,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6709,8 +6949,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6783,226 +7026,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-10800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-34100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-51400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-18300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-15100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-108600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-13000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>91400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-23000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-12300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-14400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-58800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>300500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-9400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-70300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>56900</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-5700</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-9000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-14500</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>2700</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>1900</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1600</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>2300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-3000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-10000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-4300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>16100</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1700</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>15900</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>4200</v>
-      </c>
-      <c r="Y101" s="3">
-        <v>-5600</v>
       </c>
       <c r="Z101" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="E102" s="3">
         <v>18900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-30700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-25300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>14500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-23600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>31300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-6300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>137400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-15700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>21800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-9400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>9500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-37200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-117600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-17600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-57900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>45400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-39300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>3900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>25200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>19200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
   <si>
     <t>MEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,348 +665,361 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E7" s="2">
         <v>44772</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44590</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44499</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44317</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44226</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44044</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43953</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43862</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43764</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43673</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43582</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43491</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43400</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43309</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43218</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43127</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43036</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42945</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42854</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42763</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>315900</v>
+      </c>
+      <c r="E8" s="3">
         <v>282400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>288700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>291600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>295500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>287800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>301000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>295300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>190900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>210600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>285900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>257200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>270200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>266000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>246900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>264000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>223400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>249000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>228000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>230100</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>201200</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>219800</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>195600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>241800</v>
+      </c>
+      <c r="E9" s="3">
         <v>220600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>233700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>221300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>226300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>216100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>225600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>222300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>217300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>143900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>151400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>206600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>188600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>194400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>195400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>179600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>190600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>163300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>187100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>167900</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>167300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>145600</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>164500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>142200</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>153700</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>74100</v>
+      </c>
+      <c r="E10" s="3">
         <v>61800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>55000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>70300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>69200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>71700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>75400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>73000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>83500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>47000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>59200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>79300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>68600</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>75800</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>70600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>67300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>73400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>60100</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>61900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>60100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>62800</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>55600</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>55300</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>53400</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1034,8 +1047,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1111,8 +1125,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1188,40 +1205,43 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3">
         <v>-4100</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-2600</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-2100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-1900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-2300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>500</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1232,41 +1252,44 @@
       <c r="P14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>3800</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>10900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>600</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
       <c r="V14" s="3">
         <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
         <v>4200</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>2600</v>
       </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>8</v>
+      <c r="Z14" s="3">
+        <v>0</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1277,7 +1300,7 @@
         <v>4700</v>
       </c>
       <c r="F15" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="G15" s="3">
         <v>4800</v>
@@ -1292,49 +1315,49 @@
         <v>4800</v>
       </c>
       <c r="K15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="L15" s="3">
         <v>5000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>4700</v>
       </c>
       <c r="M15" s="3">
         <v>4700</v>
       </c>
       <c r="N15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="O15" s="3">
         <v>4800</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>4700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>5000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>3700</v>
-      </c>
-      <c r="T15" s="3">
-        <v>1900</v>
       </c>
       <c r="U15" s="3">
         <v>1900</v>
       </c>
       <c r="V15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="W15" s="3">
         <v>2000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>1100</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>600</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z15" s="3" t="s">
         <v>8</v>
@@ -1342,8 +1365,11 @@
       <c r="AA15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1368,162 +1394,169 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>282900</v>
+      </c>
+      <c r="E17" s="3">
         <v>256500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>271200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>258700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>260200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>251800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>265100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>257200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>252500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>174200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>174300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>244400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>226500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>231600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>233000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>220900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>244900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>194700</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>221400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>192400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>200400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>175800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>193800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>166500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E18" s="3">
         <v>25900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>17500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>32900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>35300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>36000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>35900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>38100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>48300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>36300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>41500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>30700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>38600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>33000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>26000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>19100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>28700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>27600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>35600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>29700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>25400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>26000</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>29100</v>
       </c>
       <c r="AA18" s="3">
         <v>29100</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1551,206 +1584,213 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-1200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>5900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>4900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>3200</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3500</v>
-      </c>
-      <c r="W20" s="3">
-        <v>-600</v>
       </c>
       <c r="X20" s="3">
         <v>-600</v>
       </c>
       <c r="Y20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Z20" s="3">
         <v>1900</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>1200</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E21" s="3">
         <v>38200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>30800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>47900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>47400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>48500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>50800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>51300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>60200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>29300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>54500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>58700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>43600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>50300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>42800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>39900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>27600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>36600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>38900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>46200</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>36400</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>30400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>34600</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>36200</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>700</v>
-      </c>
-      <c r="G22" s="3">
-        <v>1100</v>
       </c>
       <c r="H22" s="3">
         <v>1100</v>
       </c>
       <c r="I22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J22" s="3">
         <v>900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1600</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>2100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2900</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1758,8 +1798,8 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1782,162 +1822,171 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>33400</v>
+      </c>
+      <c r="E23" s="3">
         <v>25900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>17200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>33000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>34800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>36600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>36500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>46200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>15600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>40100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>44000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>29000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>35600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>30100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>27700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>17600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>28200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>30800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>39100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>29100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>24800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>27900</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>30300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E24" s="3">
         <v>4400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>5500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>4600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-5100</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>5200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>7300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>3000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>4500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-2900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>6600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4300</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4700</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>6600</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2013,162 +2062,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E26" s="3">
         <v>21500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>16200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>29400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>27500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>29100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>31100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>38600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>20700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>30100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>41200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>23800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>28300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>22600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>25900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>14600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>23700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>33700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>32500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>24200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>20500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>23200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>23700</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E27" s="3">
         <v>21500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>16200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>29400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>27500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>29100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>31100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>38600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>20700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>30100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>41200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>23800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>28300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>22600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>25900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>14600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>23700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>33700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>32500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>24200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>20500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>23200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>23700</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2244,8 +2302,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2273,8 +2334,8 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -2288,26 +2349,26 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
         <v>4800</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
+      <c r="U29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="3">
         <v>3100</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>-56800</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>8</v>
@@ -2321,8 +2382,11 @@
       <c r="AA29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2398,8 +2462,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2475,162 +2542,171 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>1200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-5900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-4900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-3200</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="W32" s="3">
-        <v>600</v>
       </c>
       <c r="X32" s="3">
         <v>600</v>
       </c>
       <c r="Y32" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E33" s="3">
         <v>21500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>16200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>29400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>27500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>29100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>31100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>38600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>20700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>30100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>41200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>23800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>28300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>22600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>30700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>14600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>23700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>36800</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-24300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>24200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>20500</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>23200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>23700</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2706,167 +2782,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E35" s="3">
         <v>21500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>16200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>29400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>27500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>29100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>31100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>38600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>20700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>30100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>41200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>23800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>28300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>22600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>30700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>14600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>23700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>36800</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-24300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>24200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>20500</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>23200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>23700</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E38" s="2">
         <v>44772</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44590</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44499</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44317</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44226</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44044</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43953</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43862</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43764</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43673</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43582</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43491</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43400</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43309</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43218</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43127</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43036</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42945</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42854</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42763</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2894,8 +2979,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2923,85 +3009,89 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>129600</v>
+      </c>
+      <c r="E41" s="3">
         <v>152400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>172000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>153100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>177200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>207900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>233200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>218700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>242300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>211000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>217300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>79900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>95600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>73800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>83200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>73700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>110900</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>228500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>246100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>304000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>258600</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>297900</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>294000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>268800</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>249600</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3077,316 +3167,331 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>321000</v>
+      </c>
+      <c r="E43" s="3">
         <v>289700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>281600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>299400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>295000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>290000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>294000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>284000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>301100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>246600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>201400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>237600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>217300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>246500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>233600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>226200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>240200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>191000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>205000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>202000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>216000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>165100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>165900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>153800</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>172500</v>
+      </c>
+      <c r="E44" s="3">
         <v>173900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>158500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>167000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>149000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>142400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>124200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>124000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>120700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>124000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>131000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>126100</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>133800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>122000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>116700</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>124000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>118300</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>88500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>84100</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>83600</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>78400</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>64800</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>57900</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>62000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>35300</v>
+      </c>
+      <c r="E45" s="3">
         <v>23100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>16900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>20900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>21900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>22600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>18300</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>16400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>15900</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>20300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>19000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>22500</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>21700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>15900</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>14800</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>15700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>15900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>19100</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>12500</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>14500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>658400</v>
+      </c>
+      <c r="E46" s="3">
         <v>639100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>629000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>640400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>643100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>660900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>674000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>645000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>682300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>598000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>565600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>463900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>465400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>461300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>453500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>446400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>491100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>523900</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>550000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>605300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>568900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>546900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>530300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>499100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>497100</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3462,162 +3567,171 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>213800</v>
+      </c>
+      <c r="E48" s="3">
         <v>212800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>217000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>218600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>228400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>235200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>226300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>228700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>226700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>230700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>225400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>226300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>226700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>222500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>191900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>189100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>187900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>165300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>162200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>153700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>126900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>117400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>90600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>87700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>427700</v>
+      </c>
+      <c r="E49" s="3">
         <v>435300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>440700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>447300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>454100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>459300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>465000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>468500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>470300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>475400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>476400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>484200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>489400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>493400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>498200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>504400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>509000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>117000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>120200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>125200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>123400</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>36100</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>8200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>8800</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3693,8 +3807,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3770,85 +3887,91 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>94400</v>
+      </c>
+      <c r="E52" s="3">
         <v>102700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>102400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>105000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>105100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>103600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>101700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>102300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>110000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>114100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>103200</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>107900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>101200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>91700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>88100</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>86300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>82500</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>86600</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>83500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>75600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>79100</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>83000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>74900</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>71400</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3924,85 +4047,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1394300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1389900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1389100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1411300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1430700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1459000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1467000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1444500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1489300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1418200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1370600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1282300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1282700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1268900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1231700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1226200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1270500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>892800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>915900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>959800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>898300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>783400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>704000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>667000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>666500</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4030,8 +4159,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4059,85 +4189,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>124500</v>
+      </c>
+      <c r="E57" s="3">
         <v>116400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>108500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>115900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>118600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>110800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>122900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>117800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>112400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>83200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>73800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>88800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>97100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>90700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>91900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>88600</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>105600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>79000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>89500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>87900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>99300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>81200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>75300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>67700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4148,64 +4282,64 @@
         <v>13000</v>
       </c>
       <c r="F58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="G58" s="3">
         <v>13200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>14700</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14800</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>15400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15300</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15100</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15200</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15700</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15300</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>3900</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>4400</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>2900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2300</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>3800</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z58" s="3" t="s">
         <v>8</v>
@@ -4213,316 +4347,331 @@
       <c r="AA58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>75500</v>
+      </c>
+      <c r="E59" s="3">
         <v>66400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>67100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>74500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>78500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>84900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>76000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>71000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>61400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>54700</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>59700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>72000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>74700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>73300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>72600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>71300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>53900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>63100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>59500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>50700</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>41500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>49100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>43500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>213000</v>
+      </c>
+      <c r="E60" s="3">
         <v>195800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>188600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>203700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>207800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>204100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>222700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>209200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>198700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>160000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>143800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>163600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>184300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>180800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>180900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>176400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>192200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>136800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>157000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>150300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>152300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>126500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>124400</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>111200</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>113900</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>191000</v>
+      </c>
+      <c r="E61" s="3">
         <v>194200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>197500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>202400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>208400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>220600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>225200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>229200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>332300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>334400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>336800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>241900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>259900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>267700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>276900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>287700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>342300</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>49200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>53400</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>116000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>105500</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>47600</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>27000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>37000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E62" s="3">
         <v>88500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>89200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>88800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>95000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>100000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>101100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>108500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>106900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>110000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>106600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>103900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>105900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>106100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>84200</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>88000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>92700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>74600</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>75500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>86300</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>33700</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>19900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>11500</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>10900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4598,8 +4747,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4675,8 +4827,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4752,85 +4907,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>495500</v>
+      </c>
+      <c r="E66" s="3">
         <v>478500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>475300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>494900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>511200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>524700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>549000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>546900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>637900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>604400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>587200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>509400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>550100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>554600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>542000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>552100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>627200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>260600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>285900</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>352600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>291500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>194000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>162900</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>159100</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4858,8 +5019,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4935,8 +5097,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5012,8 +5177,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5089,8 +5257,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5166,85 +5337,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>771200</v>
+      </c>
+      <c r="E72" s="3">
         <v>768100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>763900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>752900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>749800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>761900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>746000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>726600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>698900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>664600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>651900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>625600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>588500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>568900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>545200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>526700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>500000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>490000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>472000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>439200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>467400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>446600</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>427000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>407200</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>387200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5320,8 +5497,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5397,8 +5577,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5474,85 +5657,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>898800</v>
+      </c>
+      <c r="E76" s="3">
         <v>911400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>913800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>916400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>919500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>934300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>918000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>897600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>851400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>813800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>783400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>772900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>732600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>714300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>689700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>674100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>643300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>632200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>630000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>607200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>606800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>589400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>541100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>507900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>492800</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5628,167 +5817,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44863</v>
+      </c>
+      <c r="E80" s="2">
         <v>44772</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44590</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44499</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44317</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44226</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44044</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43953</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43862</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43764</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43673</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43582</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43491</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43400</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43309</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43218</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43127</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43036</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42945</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42854</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42763</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E81" s="3">
         <v>21500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>16200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>29400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>27500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>29100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>31100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>38600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>20700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>30100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>41200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>23800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>28300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>22600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>30700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>14600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>23700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>36800</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-24300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>24200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>20500</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>23200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>23700</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5816,85 +6014,89 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E83" s="3">
         <v>12300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>13000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>12600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12100</v>
-      </c>
-      <c r="M83" s="3">
-        <v>12300</v>
       </c>
       <c r="N83" s="3">
         <v>12300</v>
       </c>
       <c r="O83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="P83" s="3">
         <v>11900</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11800</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>12700</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12200</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>10000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>8400</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8100</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>7100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7300</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>5600</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>6700</v>
-      </c>
-      <c r="Z83" s="3">
-        <v>5900</v>
       </c>
       <c r="AA83" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5970,8 +6172,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6047,8 +6252,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6124,8 +6332,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6201,8 +6412,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6278,85 +6492,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E89" s="3">
         <v>12700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>42000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>27000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>9700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>36000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>87100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>40300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>16400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>58000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>48700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>19100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>37700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>28100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>16200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>20000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>30700</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>41900</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>21600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>23600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>38500</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>43000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6384,85 +6604,89 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8300</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-4800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-3600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-10200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-13600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-12800</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-10400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-18200</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-13000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-18300</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-8400</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-9200</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6538,8 +6762,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6615,85 +6842,91 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-9600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-5300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-15400</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-4800</v>
       </c>
       <c r="J94" s="3">
         <v>-4800</v>
       </c>
       <c r="K94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="L94" s="3">
         <v>-3600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-11600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-10100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-8200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-13000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-12500</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-8800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-431300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-18200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-19000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-116100</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-29900</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6721,70 +6954,71 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-5000</v>
+        <v>-4900</v>
       </c>
       <c r="E96" s="3">
         <v>-5000</v>
       </c>
       <c r="F96" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="G96" s="3">
         <v>-5100</v>
       </c>
       <c r="H96" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I96" s="3">
         <v>-5200</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-4200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-4100</v>
       </c>
       <c r="K96" s="3">
         <v>-4100</v>
       </c>
       <c r="L96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="M96" s="3">
         <v>-5000</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-4100</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4000</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-4100</v>
       </c>
       <c r="P96" s="3">
         <v>-4100</v>
       </c>
       <c r="Q96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="R96" s="3">
         <v>-3600</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-4100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-4500</v>
-      </c>
-      <c r="T96" s="3">
-        <v>-4100</v>
       </c>
       <c r="U96" s="3">
         <v>-4100</v>
       </c>
       <c r="V96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="W96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-3400</v>
       </c>
       <c r="X96" s="3">
         <v>-3400</v>
@@ -6793,13 +7027,16 @@
         <v>-3400</v>
       </c>
       <c r="Z96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="AA96" s="3">
         <v>-3700</v>
       </c>
-      <c r="AA96" s="3">
+      <c r="AB96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6875,8 +7112,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6952,8 +7192,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7029,235 +7272,247 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-27900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-20800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-10800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-34100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-51400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-18300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-108600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-13000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>91400</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-23000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-12300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-14400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-58800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>300500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-9400</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-70300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>6400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>56900</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-9000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-14500</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-1900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1600</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>1900</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>700</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1600</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>2300</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-3000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-10000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-4300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>16100</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-1700</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>15900</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>4200</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>-5600</v>
       </c>
       <c r="AA101" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-19600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>18900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-30700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-25300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>14500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-23600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>31300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-6300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>137400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-15700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>21800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>9500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-37200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-117600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-17600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-57900</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>45400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-39300</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>3900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>25200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>19200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
   <si>
     <t>MEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,361 +665,374 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E7" s="2">
         <v>44863</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44772</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44590</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44499</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44317</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44226</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44044</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43953</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43862</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43764</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43673</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43582</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43491</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43400</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43309</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43218</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43127</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43036</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42945</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42854</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42763</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>280100</v>
+      </c>
+      <c r="E8" s="3">
         <v>315900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>282400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>288700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>291600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>295500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>287800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>301000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>295300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>190900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>210600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>285900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>257200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>270200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>266000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>246900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>264000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>223400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>249000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>228000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>230100</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>201200</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>219800</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>195600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>215200</v>
+      </c>
+      <c r="E9" s="3">
         <v>241800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>220600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>233700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>221300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>226300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>216100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>225600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>222300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>217300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>143900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>151400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>206600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>188600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>194400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>195400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>179600</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>190600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>163300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>187100</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>167900</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>167300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>145600</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>164500</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>142200</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>153700</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>64900</v>
+      </c>
+      <c r="E10" s="3">
         <v>74100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>61800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>55000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>70300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>69200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>71700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>75400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>73000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>83500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>47000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>59200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>79300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>68600</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>75800</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>70600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>67300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>73400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>60100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>61900</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>60100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>62800</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>55600</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>55300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>53400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1048,8 +1061,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1128,8 +1142,11 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1208,43 +1225,46 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-4100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-2600</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-2100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-2300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>900</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>500</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>8</v>
@@ -1255,41 +1275,44 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>3800</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>10900</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>600</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>4200</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>2600</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>8</v>
+      <c r="AA14" s="3">
+        <v>0</v>
       </c>
       <c r="AB14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1303,7 +1326,7 @@
         <v>4700</v>
       </c>
       <c r="G15" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="H15" s="3">
         <v>4800</v>
@@ -1318,49 +1341,49 @@
         <v>4800</v>
       </c>
       <c r="L15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="M15" s="3">
         <v>5000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>4700</v>
       </c>
       <c r="N15" s="3">
         <v>4700</v>
       </c>
       <c r="O15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="P15" s="3">
         <v>4800</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>4700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>5000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5500</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>3700</v>
-      </c>
-      <c r="U15" s="3">
-        <v>1900</v>
       </c>
       <c r="V15" s="3">
         <v>1900</v>
       </c>
       <c r="W15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X15" s="3">
         <v>2000</v>
       </c>
-      <c r="X15" s="3">
+      <c r="Y15" s="3">
         <v>1100</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>600</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>8</v>
@@ -1368,8 +1391,11 @@
       <c r="AB15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1395,168 +1421,175 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>252500</v>
+      </c>
+      <c r="E17" s="3">
         <v>282900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>256500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>271200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>258700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>260200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>251800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>265100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>257200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>252500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>174200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>174300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>244400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>226500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>231600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>233000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>220900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>244900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>194700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>221400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>192400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>175800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>193800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>166500</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E18" s="3">
         <v>33000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>25900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>17500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>32900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>35300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>36000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>35900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>38100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>48300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>36300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>41500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>30700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>38600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>33000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>26000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>19100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>28700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>27600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>35600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>29700</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>25400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>26000</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>29100</v>
       </c>
       <c r="AB18" s="3">
         <v>29100</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1585,215 +1618,222 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-1200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>1600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>5900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>4900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2900</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>1700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>3200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3500</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-600</v>
       </c>
       <c r="Y20" s="3">
         <v>-600</v>
       </c>
       <c r="Z20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AA20" s="3">
         <v>1900</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>1200</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E21" s="3">
         <v>46100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>38200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>30800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>47900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>47400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>48500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>50800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>51300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>60200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>29300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>54500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>58700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>43600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>50300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>42800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>39900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>27600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>36600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>38900</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>46200</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>36400</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>30400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>34600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>36200</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>800</v>
+      </c>
+      <c r="E22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>700</v>
-      </c>
-      <c r="H22" s="3">
-        <v>1100</v>
       </c>
       <c r="I22" s="3">
         <v>1100</v>
       </c>
       <c r="J22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K22" s="3">
         <v>900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1400</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1600</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>2100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2400</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2900</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>8</v>
@@ -1801,8 +1841,8 @@
       <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1825,168 +1865,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E23" s="3">
         <v>33400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>25900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>17200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>33500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>33000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>34800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>36600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>46200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>15600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>40100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>44000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>29000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>35600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>30100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>27700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>17600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>28200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>30800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>39100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>29100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>24800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>27900</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>30300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E24" s="3">
         <v>5800</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>4400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>5500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>4600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>7600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-5100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>7300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>3000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>4500</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-2900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>6600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>4900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4300</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4700</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>6600</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2065,168 +2114,177 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E26" s="3">
         <v>27600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>21500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>16200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>29400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>27500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>29100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>31100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>38600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>20700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>30100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>41200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>23800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>28300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>22600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>25900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>14600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>23700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>33700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>32500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>24200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>20500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>23200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>23700</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E27" s="3">
         <v>27600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>21500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>16200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>29400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>27500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>29100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>31100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>38600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>20700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>30100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>41200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>23800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>28300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>22600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>25900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>14600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>23700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>33700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>32500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>24200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>20500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>23200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>23700</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2305,8 +2363,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2337,8 +2398,8 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -2352,26 +2413,26 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
         <v>4800</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V29" s="3">
+      <c r="V29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="3">
         <v>3100</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>-56800</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Y29" s="3" t="s">
         <v>8</v>
@@ -2385,8 +2446,11 @@
       <c r="AB29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2465,8 +2529,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2545,168 +2612,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>1200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-1600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-5900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-4900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2900</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-1700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-3200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="X32" s="3">
-        <v>600</v>
       </c>
       <c r="Y32" s="3">
         <v>600</v>
       </c>
       <c r="Z32" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E33" s="3">
         <v>27600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>21500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>16200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>29400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>27500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>29100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>31100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>38600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>20700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>30100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>41200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>23800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>28300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>22600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>30700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>14600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>23700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>36800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-24300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>24200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>20500</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>23200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>23700</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2785,173 +2861,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E35" s="3">
         <v>27600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>21500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>16200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>29400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>27500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>29100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>31100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>38600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>20700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>30100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>41200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>23800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>28300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>22600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>30700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>14600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>23700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>36800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-24300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>24200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>20500</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>23200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>23700</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E38" s="2">
         <v>44863</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44772</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44590</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44499</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44317</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44226</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44044</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43953</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43862</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43764</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43673</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43582</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43491</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43400</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43309</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43218</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43127</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43036</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42945</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42854</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42763</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2980,8 +3065,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3010,88 +3096,92 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>164700</v>
+      </c>
+      <c r="E41" s="3">
         <v>129600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>152400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>172000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>153100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>177200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>207900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>233200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>218700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>242300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>211000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>217300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>79900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>95600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>73800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>83200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>73700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>110900</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>228500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>246100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>304000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>258600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>297900</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>294000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>268800</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>249600</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3170,328 +3260,343 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>303000</v>
+      </c>
+      <c r="E43" s="3">
         <v>321000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>289700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>281600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>299400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>295000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>290000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>294000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>284000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>301100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>246600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>201400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>237600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>217300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>246500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>233600</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>226200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>240200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>191000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>205000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>202000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>216000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>165100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>165900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>153800</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>175400</v>
+      </c>
+      <c r="E44" s="3">
         <v>172500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>173900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>158500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>167000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>149000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>142400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>124200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>124000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>120700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>124000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>131000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>126100</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>133800</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>122000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>116700</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>124000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>118300</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>88500</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>84100</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>83600</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>78400</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>64800</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>57900</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>62000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E45" s="3">
         <v>35300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>20900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>21900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>22600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>16400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>15900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>20300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>19000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>20000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>22500</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>21700</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>15900</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>14800</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>15700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>15900</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>19100</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>12500</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>14500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>671000</v>
+      </c>
+      <c r="E46" s="3">
         <v>658400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>639100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>629000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>640400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>643100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>660900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>674000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>645000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>682300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>598000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>565600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>463900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>465400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>461300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>453500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>446400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>491100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>523900</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>550000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>605300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>568900</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>546900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>530300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>499100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>497100</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3570,168 +3675,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>230100</v>
+      </c>
+      <c r="E48" s="3">
         <v>213800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>212800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>217000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>218600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>228400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>235200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>226300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>228700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>226700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>230700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>225400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>226300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>226700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>222500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>191900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>189100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>187900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>165300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>162200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>153700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>126900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>117400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>90600</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>87700</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>425800</v>
+      </c>
+      <c r="E49" s="3">
         <v>427700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>435300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>440700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>447300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>454100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>459300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>465000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>468500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>470300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>475400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>476400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>484200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>489400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>493400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>498200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>504400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>509000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>117000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>120200</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>125200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>123400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>36100</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>8200</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>8800</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3810,8 +3924,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3890,88 +4007,94 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E52" s="3">
         <v>94400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>102700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>102400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>105000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>105100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>103600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>101700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>102300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>110000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>114100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>103200</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>107900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>101200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>91700</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>88100</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>86300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>82500</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>86600</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>83500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>75600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>79100</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>83000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>74900</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>71400</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4050,88 +4173,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1428500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1394300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1389900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1389100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1411300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1430700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1459000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1467000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1444500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1489300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1418200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1370600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1282300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1282700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1268900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1231700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1226200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1270500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>892800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>915900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>959800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>898300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>783400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>704000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>667000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>666500</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4160,8 +4289,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4190,93 +4320,97 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>113100</v>
+      </c>
+      <c r="E57" s="3">
         <v>124500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>116400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>108500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>115900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>118600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>110800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>122900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>117800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>112400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>83200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>73800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>88800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>97100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>90700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>91900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>88600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>105600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>79000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>89500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>87900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>99300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>81200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>75300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>67700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>13000</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>13000</v>
@@ -4285,64 +4419,64 @@
         <v>13000</v>
       </c>
       <c r="G58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="H58" s="3">
         <v>13200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>14700</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>15400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15300</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15200</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15400</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15700</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15200</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15300</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>3900</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>4400</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>2900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2300</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>3800</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA58" s="3" t="s">
         <v>8</v>
@@ -4350,328 +4484,343 @@
       <c r="AB58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>77300</v>
+      </c>
+      <c r="E59" s="3">
         <v>75500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>66400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>67100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>74600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>74500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>78500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>84900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>76000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>71000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>61400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>54700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>59700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>72000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>74700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>73300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>72600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>71300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>53900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>63100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>59500</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>50700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>41500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>49100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>43500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>190900</v>
+      </c>
+      <c r="E60" s="3">
         <v>213000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>195800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>188600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>203700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>207800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>204100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>222700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>209200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>198700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>160000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>143800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>163600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>184300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>180800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>180900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>176400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>192200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>136800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>157000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>150300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>152300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>126500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>124400</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>111200</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>113900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200800</v>
+      </c>
+      <c r="E61" s="3">
         <v>191000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>194200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>197500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>202400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>208400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>220600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>225200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>229200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>332300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>334400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>336800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>241900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>259900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>267700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>276900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>287700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>342300</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>49200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>53400</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>116000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>105500</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>47600</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>27000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>37000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>94200</v>
+      </c>
+      <c r="E62" s="3">
         <v>91500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>88500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>89200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>88800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>95000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>100000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>101100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>108500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>106900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>110000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>106600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>103900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>105900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>106100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>84200</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>88000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>92700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>74600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>75500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>86300</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>33700</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>19900</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>11500</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>10900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4750,8 +4899,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4830,8 +4982,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4910,88 +5065,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>485900</v>
+      </c>
+      <c r="E66" s="3">
         <v>495500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>478500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>475300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>494900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>511200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>524700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>549000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>546900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>637900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>604400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>587200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>509400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>550100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>554600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>542000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>552100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>627200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>260600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>285900</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>352600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>291500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>194000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>162900</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>159100</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5020,8 +5181,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5100,8 +5262,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5180,8 +5345,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5260,8 +5428,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5340,88 +5511,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>778200</v>
+      </c>
+      <c r="E72" s="3">
         <v>771200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>768100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>763900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>752900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>749800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>761900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>746000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>726600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>698900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>664600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>651900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>625600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>588500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>568900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>545200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>526700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>500000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>490000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>472000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>439200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>467400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>446600</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>427000</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>407200</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>387200</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5500,8 +5677,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5580,8 +5760,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5660,88 +5843,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>942600</v>
+      </c>
+      <c r="E76" s="3">
         <v>898800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>911400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>913800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>916400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>919500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>934300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>918000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>897600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>851400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>813800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>783400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>772900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>732600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>714300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>689700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>674100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>643300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>632200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>630000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>607200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>606800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>589400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>541100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>507900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>492800</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5820,173 +6009,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44954</v>
+      </c>
+      <c r="E80" s="2">
         <v>44863</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44772</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44590</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44499</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44317</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44226</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44044</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43953</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43862</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43764</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43673</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43582</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43491</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43400</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43309</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43218</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43127</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43036</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42945</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42854</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42763</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E81" s="3">
         <v>27600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>21500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>16200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>29400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>27500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>29100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>31100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>38600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>20700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>30100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>41200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>23800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>28300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>22600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>30700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>14600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>23700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>36800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-24300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>24200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>20500</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>23200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>23700</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6015,88 +6213,92 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E83" s="3">
         <v>12200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>13000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>12600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>12600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12100</v>
-      </c>
-      <c r="N83" s="3">
-        <v>12300</v>
       </c>
       <c r="O83" s="3">
         <v>12300</v>
       </c>
       <c r="P83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="Q83" s="3">
         <v>11900</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>11800</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>12700</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12200</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>10000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>8400</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8100</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>7100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7300</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>5600</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>6700</v>
-      </c>
-      <c r="AA83" s="3">
-        <v>5900</v>
       </c>
       <c r="AB83" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6175,8 +6377,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6255,8 +6460,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6335,8 +6543,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6415,8 +6626,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6495,88 +6709,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>55700</v>
+      </c>
+      <c r="E89" s="3">
         <v>15400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>42000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>20100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>27000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>9700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>36000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>87100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>40300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>16400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>58000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>48700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>19100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>37700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>28100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>16200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>20000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>30700</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>41900</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>21600</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>23600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>38500</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>43000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6605,88 +6825,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-8400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-9600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-4800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-3600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-10200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-13600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-12800</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-8400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-10400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-18200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-13000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-18300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-9200</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6765,8 +6989,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6845,88 +7072,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-9600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-5300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-15400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-4800</v>
       </c>
       <c r="K94" s="3">
         <v>-4800</v>
       </c>
       <c r="L94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="M94" s="3">
         <v>-3600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-11600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-10100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-8200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-12500</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-8800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-431300</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-18200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-19000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-116100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-29900</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6955,73 +7188,74 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4900</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-5000</v>
       </c>
       <c r="F96" s="3">
         <v>-5000</v>
       </c>
       <c r="G96" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="H96" s="3">
         <v>-5100</v>
       </c>
       <c r="I96" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="J96" s="3">
         <v>-5200</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-4200</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-4100</v>
       </c>
       <c r="L96" s="3">
         <v>-4100</v>
       </c>
       <c r="M96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="N96" s="3">
         <v>-5000</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-4100</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-4000</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-4100</v>
       </c>
       <c r="Q96" s="3">
         <v>-4100</v>
       </c>
       <c r="R96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="S96" s="3">
         <v>-3600</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-4100</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-4500</v>
-      </c>
-      <c r="U96" s="3">
-        <v>-4100</v>
       </c>
       <c r="V96" s="3">
         <v>-4100</v>
       </c>
       <c r="W96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="X96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="X96" s="3">
-        <v>-3400</v>
       </c>
       <c r="Y96" s="3">
         <v>-3400</v>
@@ -7030,13 +7264,16 @@
         <v>-3400</v>
       </c>
       <c r="AA96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="AB96" s="3">
         <v>-3700</v>
       </c>
-      <c r="AB96" s="3">
+      <c r="AC96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7115,8 +7352,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7195,8 +7435,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7275,244 +7518,256 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-27900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-20800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-10800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-34100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-51400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-18300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-108600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-13000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>91400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-23000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-12300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-14400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14900</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-58800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>300500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-9400</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-70300</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>6400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>56900</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-5700</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-9000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-14500</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-5400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1900</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1800</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1600</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>1900</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>700</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-900</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>2300</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-3000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-10000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-4300</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>16100</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>15900</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>4200</v>
-      </c>
-      <c r="AA101" s="3">
-        <v>-5600</v>
       </c>
       <c r="AB101" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-22800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-19600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>18900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-24100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-30700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-25300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>14500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-23600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>31300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-6300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>137400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-15700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>21800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-9400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>9500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-37200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-117600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-17600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-57900</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>45400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-39300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3900</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>25200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>19200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>MEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,374 +665,386 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E7" s="2">
         <v>44954</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44863</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44772</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44590</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44499</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44317</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44226</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44044</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43953</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43862</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43764</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43673</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43582</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43491</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43400</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43309</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43218</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43127</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43036</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42945</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42854</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42763</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>301200</v>
+      </c>
+      <c r="E8" s="3">
         <v>280100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>315900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>282400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>288700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>291600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>295500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>287800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>301000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>295300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>300800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>190900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>210600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>285900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>257200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>270200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>266000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>246900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>264000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>223400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>249000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>228000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>230100</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>201200</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>219800</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>195600</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>237500</v>
+      </c>
+      <c r="E9" s="3">
         <v>215200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>241800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>220600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>233700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>221300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>226300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>216100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>225600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>222300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>217300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>143900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>151400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>206600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>188600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>194400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>195400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>179600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>190600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>163300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>187100</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>167900</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>167300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>145600</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>164500</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>142200</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>153700</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E10" s="3">
         <v>64900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>74100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>61800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>55000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>70300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>69200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>71700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>75400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>73000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>83500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>47000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>59200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>79300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>68600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>75800</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>70600</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>67300</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>73400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>60100</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>61900</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>60100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>62800</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>55600</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>55300</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>53400</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1062,8 +1074,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1145,8 +1158,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1228,46 +1244,49 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-4100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-2600</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-2100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-1900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-2300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>900</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>500</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>8</v>
@@ -1278,41 +1297,44 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>3800</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>10900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>600</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>4200</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>2600</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>8</v>
+      <c r="AB14" s="3">
+        <v>0</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1329,7 +1351,7 @@
         <v>4700</v>
       </c>
       <c r="H15" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="I15" s="3">
         <v>4800</v>
@@ -1344,49 +1366,49 @@
         <v>4800</v>
       </c>
       <c r="M15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="N15" s="3">
         <v>5000</v>
-      </c>
-      <c r="N15" s="3">
-        <v>4700</v>
       </c>
       <c r="O15" s="3">
         <v>4700</v>
       </c>
       <c r="P15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="Q15" s="3">
         <v>4800</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>4700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4800</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>5000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5500</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>3700</v>
-      </c>
-      <c r="V15" s="3">
-        <v>1900</v>
       </c>
       <c r="W15" s="3">
         <v>1900</v>
       </c>
       <c r="X15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y15" s="3">
         <v>2000</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Z15" s="3">
         <v>1100</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>600</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB15" s="3" t="s">
         <v>8</v>
@@ -1394,8 +1416,11 @@
       <c r="AC15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1422,174 +1447,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>291000</v>
+      </c>
+      <c r="E17" s="3">
         <v>252500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>282900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>256500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>271200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>258700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>260200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>251800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>265100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>257200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>252500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>174200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>174300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>244400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>226500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>231600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>233000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>220900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>244900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>194700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>221400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>192400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>200400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>175800</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>193800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>166500</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E18" s="3">
         <v>27600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>33000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>25900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>17500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>32900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>35300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>36000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>35900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>38100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>48300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>36300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>41500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>30700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>38600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>33000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>26000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>19100</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>28700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>27600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>35600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>29700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>25400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>26000</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>29100</v>
       </c>
       <c r="AC18" s="3">
         <v>29100</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1619,224 +1651,231 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-3800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-1200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>5900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>4900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2900</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>1700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>3200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3500</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-600</v>
       </c>
       <c r="Z20" s="3">
         <v>-600</v>
       </c>
       <c r="AA20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AB20" s="3">
         <v>1900</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>1200</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E21" s="3">
         <v>36100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>46100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>38200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>30800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>47900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>47400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>48500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>50800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>51300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>60200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>29300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>54500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>58700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>43600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>50300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>42800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>39900</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>27600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>36600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>38900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>46200</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>36400</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>30400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>34600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>36200</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>700</v>
-      </c>
-      <c r="I22" s="3">
-        <v>1100</v>
       </c>
       <c r="J22" s="3">
         <v>1100</v>
       </c>
       <c r="K22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L22" s="3">
         <v>900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>1300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1400</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1600</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>2100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2900</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1844,8 +1883,8 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1868,174 +1907,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E23" s="3">
         <v>23000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>33400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>17200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>33500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>33000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>34800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>36600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>36500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>46200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>15600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>40100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>44000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>29000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>35600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>30100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>27700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>17600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>28200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>30800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>39100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>29100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>24800</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>27900</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>30300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E24" s="3">
         <v>3100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>5800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>4400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>4100</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>5500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>4600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>7600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-5100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>7300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7500</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>3000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>4500</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>-2900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>6600</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>4900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4300</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>4700</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>6600</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2117,174 +2165,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E26" s="3">
         <v>19900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>27600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>21500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>16200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>29400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>27500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>29100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>31100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>38600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>20700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>30100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>41200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>23800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>28300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>22600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>25900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>14600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>23700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>33700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>32500</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>24200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>20500</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>23200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>23700</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E27" s="3">
         <v>19900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>27600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>21500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>16200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>29400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>27500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>29100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>31100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>38600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>20700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>30100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>41200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>23800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>28300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>22600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>25900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>14600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>23700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>33700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>32500</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>24200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>20500</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>23200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>23700</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2366,8 +2423,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2401,8 +2461,8 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -2416,26 +2476,26 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
         <v>4800</v>
-      </c>
-      <c r="U29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W29" s="3">
+      <c r="W29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="3">
         <v>3100</v>
       </c>
-      <c r="X29" s="3">
+      <c r="Y29" s="3">
         <v>-56800</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z29" s="3" t="s">
         <v>8</v>
@@ -2449,8 +2509,11 @@
       <c r="AC29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2532,8 +2595,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2615,174 +2681,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>3800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>1200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-5900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2900</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-1700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-3200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>600</v>
       </c>
       <c r="Z32" s="3">
         <v>600</v>
       </c>
       <c r="AA32" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E33" s="3">
         <v>19900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>27600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>21500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>16200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>29400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>27500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>29100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>31100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>38600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>20700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>30100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>41200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>23800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>28300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>22600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>30700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>14600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>23700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>36800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-24300</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>24200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>20500</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>23200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>23700</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2864,179 +2939,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E35" s="3">
         <v>19900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>27600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>21500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>16200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>29400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>27500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>29100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>31100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>38600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>20700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>30100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>41200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>23800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>28300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>22600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>30700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>14600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>23700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>36800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-24300</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>24200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>20500</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>23200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>23700</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E38" s="2">
         <v>44954</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44863</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44772</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44590</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44499</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44317</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44226</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44044</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43953</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43862</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43764</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43673</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43582</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43491</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43400</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43309</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43218</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43127</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43036</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42945</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42854</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42763</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3066,8 +3150,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3097,91 +3182,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>157000</v>
+      </c>
+      <c r="E41" s="3">
         <v>164700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>129600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>152400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>172000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>153100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>177200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>207900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>233200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>218700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>242300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>211000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>217300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>79900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>95600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>73800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>83200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>73700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>110900</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>228500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>246100</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>304000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>258600</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>297900</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>294000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>268800</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>249600</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3263,340 +3352,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>327200</v>
+      </c>
+      <c r="E43" s="3">
         <v>303000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>321000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>289700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>281600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>299400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>295000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>290000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>294000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>284000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>301100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>246600</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>201400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>237600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>217300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>246500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>233600</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>226200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>240200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>191000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>205000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>202000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>216000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>165100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>165900</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>153800</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>159700</v>
+      </c>
+      <c r="E44" s="3">
         <v>175400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>172500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>173900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>158500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>167000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>149000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>142400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>124200</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>124000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>120700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>124000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>131000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>126100</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>133800</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>122000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>116700</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>124000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>118300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>88500</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>84100</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>83600</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>78400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>64800</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>57900</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>62000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20500</v>
+      </c>
+      <c r="E45" s="3">
         <v>27900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>35300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>20600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>22600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>16400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>15900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>20300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>18700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>19000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>20000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>22500</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>15900</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>14800</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>15700</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>15900</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>19100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>12500</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>14500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>664400</v>
+      </c>
+      <c r="E46" s="3">
         <v>671000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>658400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>639100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>629000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>640400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>643100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>660900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>674000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>645000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>682300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>598000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>565600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>463900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>465400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>461300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>453500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>446400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>491100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>523900</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>550000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>605300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>568900</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>546900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>530300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>499100</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>497100</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3678,174 +3782,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>248700</v>
+      </c>
+      <c r="E48" s="3">
         <v>230100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>213800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>212800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>217000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>218600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>228400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>235200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>226300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>228700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>226700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>230700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>225400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>226300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>226700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>222500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>191900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>189100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>187900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>165300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>162200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>153700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>126900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>117400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>90600</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>87700</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>558600</v>
+      </c>
+      <c r="E49" s="3">
         <v>425800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>427700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>435300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>440700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>447300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>454100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>459300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>465000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>468500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>470300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>475400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>476400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>484200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>489400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>493400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>498200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>504400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>509000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>117000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>120200</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>125200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>123400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>36100</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>8200</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>8800</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3927,8 +4040,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4010,91 +4126,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>107400</v>
+      </c>
+      <c r="E52" s="3">
         <v>101600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>94400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>102700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>102400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>105000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>105100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>103600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>101700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>102300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>110000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>114100</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>103200</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>107900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>101200</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>91700</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>88100</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>86300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>82500</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>86600</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>83500</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>75600</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>79100</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>83000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>74900</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>71400</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4176,91 +4298,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1579100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1428500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1394300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1389900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1389100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1411300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1430700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1459000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1467000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1444500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1489300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1418200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1370600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1282300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1282700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1268900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1231700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1226200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1270500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>892800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>915900</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>959800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>898300</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>783400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>704000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>667000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>666500</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4290,8 +4418,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4321,99 +4450,103 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>138700</v>
+      </c>
+      <c r="E57" s="3">
         <v>113100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>124500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>116400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>108500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>115900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>118600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>110800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>122900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>117800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>112400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>83200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>73800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>88800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>97100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>90700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>91900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>88600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>105600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>79000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>89500</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>87900</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>99300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>81200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>75300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>67700</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
-      </c>
-      <c r="E58" s="3">
-        <v>13000</v>
       </c>
       <c r="F58" s="3">
         <v>13000</v>
@@ -4422,64 +4555,64 @@
         <v>13000</v>
       </c>
       <c r="H58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="I58" s="3">
         <v>13200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>14700</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>15400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15300</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15300</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15200</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15400</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15700</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15200</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>15300</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>3900</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>4400</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>2900</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2300</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>3800</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB58" s="3" t="s">
         <v>8</v>
@@ -4487,340 +4620,355 @@
       <c r="AC58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>86100</v>
+      </c>
+      <c r="E59" s="3">
         <v>77300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>75500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>66400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>67100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>74600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>74500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>78500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>84900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>76000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>71000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>61400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>54700</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>59700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>72000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>74700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>73300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>72600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>71300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>53900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>63100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>59500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>50700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>41500</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>49100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>43500</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E60" s="3">
         <v>190900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>213000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>195800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>188600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>203700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>207800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>204100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>222700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>209200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>198700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>160000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>143800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>163600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>184300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>180800</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>180900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>176400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>192200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>136800</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>157000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>150300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>152300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>126500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>124400</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>111200</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>113900</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>303600</v>
+      </c>
+      <c r="E61" s="3">
         <v>200800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>191000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>194200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>197500</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>202400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>208400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>220600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>225200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>229200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>332300</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>334400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>336800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>241900</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>259900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>267700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>276900</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>287700</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>342300</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>49200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>53400</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>116000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>105500</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>47600</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>27000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>37000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>94600</v>
+      </c>
+      <c r="E62" s="3">
         <v>94200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>91500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>88500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>89200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>88800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>95000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>100000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>101100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>108500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>106900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>110000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>106600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>103900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>105900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>106100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>84200</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>88000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>92700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>74600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>75500</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>86300</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>33700</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>19900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>11500</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>10900</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4902,8 +5050,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4985,8 +5136,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5068,91 +5222,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>637300</v>
+      </c>
+      <c r="E66" s="3">
         <v>485900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>495500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>478500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>475300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>494900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>511200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>524700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>549000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>546900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>637900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>604400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>587200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>509400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>550100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>554600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>542000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>552100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>627200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>260600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>285900</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>352600</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>291500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>194000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>162900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>159100</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5182,8 +5342,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5265,8 +5426,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5348,8 +5512,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5431,8 +5598,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5514,91 +5684,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>772700</v>
+      </c>
+      <c r="E72" s="3">
         <v>778200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>771200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>768100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>763900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>752900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>749800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>761900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>746000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>726600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>698900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>664600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>651900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>625600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>588500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>568900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>545200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>526700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>500000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>490000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>472000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>439200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>467400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>446600</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>427000</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>407200</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>387200</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5680,8 +5856,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5763,8 +5942,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5846,91 +6028,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>941800</v>
+      </c>
+      <c r="E76" s="3">
         <v>942600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>898800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>911400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>913800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>916400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>919500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>934300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>918000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>897600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>851400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>813800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>783400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>772900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>732600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>714300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>689700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>674100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>643300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>632200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>630000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>607200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>606800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>589400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>541100</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>507900</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>492800</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6012,179 +6200,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45045</v>
+      </c>
+      <c r="E80" s="2">
         <v>44954</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44863</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44772</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44590</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44499</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44317</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44226</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44044</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43953</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43862</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43764</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43673</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43582</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43491</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43400</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43309</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43218</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43127</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43036</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42945</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42854</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42763</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E81" s="3">
         <v>19900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>27600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>21500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>16200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>29400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>27500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>29100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>31100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>38600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>20700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>30100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>41200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>23800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>28300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>22600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>30700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>14600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>23700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>36800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-24300</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>24200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>20500</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>23200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>23700</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6214,91 +6411,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E83" s="3">
         <v>12300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>13000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>12600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>13300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>12600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12100</v>
-      </c>
-      <c r="O83" s="3">
-        <v>12300</v>
       </c>
       <c r="P83" s="3">
         <v>12300</v>
       </c>
       <c r="Q83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="R83" s="3">
         <v>11900</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>11800</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>12700</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12200</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>10000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>8400</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8100</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>7100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7300</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>5600</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>6700</v>
-      </c>
-      <c r="AB83" s="3">
-        <v>5900</v>
       </c>
       <c r="AC83" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6380,8 +6581,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6463,8 +6667,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6546,8 +6753,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6629,8 +6839,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6712,91 +6925,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E89" s="3">
         <v>55700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>42000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>20100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>27000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>36000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>87100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>40300</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>16400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>58000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>48700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>19100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>37700</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>28100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>16200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>20000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>30700</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>41900</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>21600</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>23600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>38500</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>43000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6826,91 +7045,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-8400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-9600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8300</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-4800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-3600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-10200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-13600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-12800</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-8400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-10400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-18200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-13000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-18300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-8400</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-9200</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6992,8 +7215,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7075,91 +7301,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-125800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-12800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-9600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-5300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-15400</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-4800</v>
       </c>
       <c r="L94" s="3">
         <v>-4800</v>
       </c>
       <c r="M94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="N94" s="3">
         <v>-3600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-11600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-10100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-8200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-13000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-12500</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-8800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-431300</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-18200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-14000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-19000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-116100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-29900</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-8500</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7189,76 +7421,77 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E96" s="3">
         <v>-5000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-4900</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-5000</v>
       </c>
       <c r="G96" s="3">
         <v>-5000</v>
       </c>
       <c r="H96" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="I96" s="3">
         <v>-5100</v>
       </c>
       <c r="J96" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="K96" s="3">
         <v>-5200</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-4200</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-4100</v>
       </c>
       <c r="M96" s="3">
         <v>-4100</v>
       </c>
       <c r="N96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="O96" s="3">
         <v>-5000</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-4100</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-4000</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-4100</v>
       </c>
       <c r="R96" s="3">
         <v>-4100</v>
       </c>
       <c r="S96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="T96" s="3">
         <v>-3600</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-4100</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-4500</v>
-      </c>
-      <c r="V96" s="3">
-        <v>-4100</v>
       </c>
       <c r="W96" s="3">
         <v>-4100</v>
       </c>
       <c r="X96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="Y96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>-3400</v>
       </c>
       <c r="Z96" s="3">
         <v>-3400</v>
@@ -7267,13 +7500,16 @@
         <v>-3400</v>
       </c>
       <c r="AB96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="AC96" s="3">
         <v>-3700</v>
       </c>
-      <c r="AC96" s="3">
+      <c r="AD96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7355,8 +7591,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7438,8 +7677,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7521,253 +7763,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>66800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-14900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-27900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-20800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-10800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-34100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-51400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-18300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-15100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-108600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-13000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>91400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-12300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-14400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14900</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-58800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>300500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-9400</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-70300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>6400</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>56900</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-5700</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-9000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-14500</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E101" s="3">
         <v>7100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-5400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-1800</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1600</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2700</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>1900</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>700</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1600</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-900</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>2300</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-3000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-10000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-4300</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>16100</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>15900</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>4200</v>
-      </c>
-      <c r="AB101" s="3">
-        <v>-5600</v>
       </c>
       <c r="AC101" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="E102" s="3">
         <v>35100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-22800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-19600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>18900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-24100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-30700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-25300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>14500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-23600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>31300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-6300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>137400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>21800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-9400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>9500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-37200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-117600</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-17600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-57900</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>45400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-39300</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3900</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>25200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>19200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MEI_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>MEI</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,386 +665,399 @@
     <col min="1" max="1" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E7" s="2">
         <v>45045</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44954</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44863</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44772</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44590</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44499</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44317</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44226</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44044</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43953</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43862</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43764</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43673</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43582</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43491</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43400</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43309</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43218</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43127</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43036</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42945</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42854</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42763</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>289700</v>
+      </c>
+      <c r="E8" s="3">
         <v>301200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>280100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>315900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>282400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>288700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>291600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>295500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>287800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>301000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>295300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>190900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>210600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>285900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>257200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>270200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>266000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>246900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>264000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>223400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>249000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>228000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>230100</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>201200</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>219800</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>195600</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>209300</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>235100</v>
+      </c>
+      <c r="E9" s="3">
         <v>237500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>215200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>241800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>220600</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>233700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>221300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>226300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>216100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>225600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>222300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>217300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>143900</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>151400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>206600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>188600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>194400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>195400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>179600</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>190600</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>163300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>187100</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>167900</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>167300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>145600</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>164500</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>142200</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>153700</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E10" s="3">
         <v>63700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>64900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>74100</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>61800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>55000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>70300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>69200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>71700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>75400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>73000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>83500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>47000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>59200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>79300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>68600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>75800</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>70600</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>67300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>73400</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>60100</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>61900</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>60100</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>62800</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>55600</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>55300</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>53400</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>55600</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1075,8 +1088,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1161,8 +1175,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1247,49 +1264,52 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>700</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-4100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-2600</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-2100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-1900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-2300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-2000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>900</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>500</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>8</v>
@@ -1300,46 +1320,49 @@
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>3800</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>10900</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>600</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>4200</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>2600</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>8</v>
+      <c r="AC14" s="3">
+        <v>0</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4700</v>
+        <v>5700</v>
       </c>
       <c r="E15" s="3">
         <v>4700</v>
@@ -1354,7 +1377,7 @@
         <v>4700</v>
       </c>
       <c r="I15" s="3">
-        <v>4800</v>
+        <v>4700</v>
       </c>
       <c r="J15" s="3">
         <v>4800</v>
@@ -1369,49 +1392,49 @@
         <v>4800</v>
       </c>
       <c r="N15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O15" s="3">
         <v>5000</v>
-      </c>
-      <c r="O15" s="3">
-        <v>4700</v>
       </c>
       <c r="P15" s="3">
         <v>4700</v>
       </c>
       <c r="Q15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="R15" s="3">
         <v>4800</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>4700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>4800</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>5000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>5500</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>3700</v>
-      </c>
-      <c r="W15" s="3">
-        <v>1900</v>
       </c>
       <c r="X15" s="3">
         <v>1900</v>
       </c>
       <c r="Y15" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Z15" s="3">
         <v>2000</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="AA15" s="3">
         <v>1100</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AB15" s="3">
         <v>600</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC15" s="3" t="s">
         <v>8</v>
@@ -1419,8 +1442,11 @@
       <c r="AD15" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1448,180 +1474,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>285900</v>
+      </c>
+      <c r="E17" s="3">
         <v>291000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>252500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>282900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>256500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>271200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>258700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>260200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>251800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>265100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>257200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>252500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>174200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>174300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>244400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>226500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>231600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>233000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>220900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>244900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>194700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>221400</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>192400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>200400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>175800</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>193800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>166500</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>180200</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E18" s="3">
         <v>10200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>27600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>33000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>25900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>17500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>32900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>35300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>36000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>35900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>38100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>48300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>36300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>41500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>30700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>38600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>33000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>26000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>19100</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>28700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>27600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>35600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>29700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>25400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>26000</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>29100</v>
       </c>
       <c r="AD18" s="3">
         <v>29100</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>29100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1652,233 +1685,240 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-1200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>5900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>4900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2900</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>1700</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>3200</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>3500</v>
-      </c>
-      <c r="Z20" s="3">
-        <v>-600</v>
       </c>
       <c r="AA20" s="3">
         <v>-600</v>
       </c>
       <c r="AB20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="AC20" s="3">
         <v>1900</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>1200</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E21" s="3">
         <v>21900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>36100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>46100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>38200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>30800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>47900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>47400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>48500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>50800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>51300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>60200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>29300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>54500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>58700</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>43600</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>50300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>42800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>39900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>27600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>36600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>38900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>46200</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>36400</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>30400</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>34600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>36200</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>37000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E22" s="3">
         <v>1400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>700</v>
-      </c>
-      <c r="J22" s="3">
-        <v>1100</v>
       </c>
       <c r="K22" s="3">
         <v>1100</v>
       </c>
       <c r="L22" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M22" s="3">
         <v>900</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>1300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>1400</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>1600</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>2100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>2400</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>2700</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>2900</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
@@ -1886,8 +1926,8 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="X22" s="3">
         <v>0</v>
@@ -1910,180 +1950,189 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>7800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>23000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>33400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>17200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>33500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>33000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>34800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>36600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>36500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>46200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>15600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>40100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>44000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>29000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>35600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>30100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>27700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>17600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>28200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>30800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>39100</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>29100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>24800</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>27900</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>30300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>31100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>5800</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>4400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>4100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>5500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>5700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>5500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>4600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>7600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-5100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>7300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>7500</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1800</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>3000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>4500</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>-2900</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>6600</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>4900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>4300</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>4700</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>6600</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>6200</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2168,180 +2217,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>900</v>
+      </c>
+      <c r="E26" s="3">
         <v>8100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>19900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>27600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>21500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>16200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>29400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>27500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>29100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>31100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>31900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>38600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>20700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>30100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>41200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>23800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>28300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>22600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>25900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>14600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>23700</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>33700</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>32500</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>24200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>20500</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>23200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>23700</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>900</v>
+      </c>
+      <c r="E27" s="3">
         <v>8100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>19900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>27600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>21500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>16200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>29400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>27500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>29100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>31100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>31900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>38600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>20700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>30100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>41200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>23800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>28300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>22600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>25900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>14600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>23700</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>33700</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>32500</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>24200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>20500</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>23200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>23700</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2426,8 +2484,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2464,8 +2525,8 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -2479,26 +2540,26 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
         <v>4800</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3">
+      <c r="X29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="3">
         <v>3100</v>
       </c>
-      <c r="Y29" s="3">
+      <c r="Z29" s="3">
         <v>-56800</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA29" s="3" t="s">
         <v>8</v>
@@ -2512,8 +2573,11 @@
       <c r="AD29" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2598,8 +2662,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2684,180 +2751,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>1200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-4900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2900</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-1700</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-3200</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>600</v>
       </c>
       <c r="AA32" s="3">
         <v>600</v>
       </c>
       <c r="AB32" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-1900</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>-1200</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>-2000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>900</v>
+      </c>
+      <c r="E33" s="3">
         <v>8100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>19900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>27600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>21500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>16200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>29400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>27500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>29100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>31100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>31900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>38600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>20700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>30100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>41200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>23800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>28300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>22600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>30700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>14600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>23700</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>36800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-24300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>24200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>20500</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>23200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>23700</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2942,185 +3018,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>900</v>
+      </c>
+      <c r="E35" s="3">
         <v>8100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>19900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>27600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>21500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>16200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>29400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>27500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>29100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>31100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>31900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>38600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>20700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>30100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>41200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>23800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>28300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>22600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>30700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>14600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>23700</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>36800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-24300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>24200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>20500</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>23200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>23700</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E38" s="2">
         <v>45045</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44954</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44863</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44772</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44590</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44499</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44317</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44226</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44044</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43953</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43862</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43764</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43673</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43582</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43491</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43400</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43309</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43218</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43127</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43036</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42945</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42854</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42763</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3151,8 +3236,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3183,94 +3269,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>147900</v>
+      </c>
+      <c r="E41" s="3">
         <v>157000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>164700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>129600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>152400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>172000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>153100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>177200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>207900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>233200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>218700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>242300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>211000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>217300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>79900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>95600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>73800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>83200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>73700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>110900</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>228500</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>246100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>304000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>258600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>297900</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>294000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>268800</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>249600</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3355,352 +3445,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>314200</v>
+      </c>
+      <c r="E43" s="3">
         <v>327200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>303000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>321000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>289700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>281600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>299400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>295000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>290000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>294000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>284000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>301100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>246600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>201400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>237600</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>217300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>246500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>233600</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>226200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>240200</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>191000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>205000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>202000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>216000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>165100</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>165900</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>153800</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>172000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E44" s="3">
         <v>159700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>175400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>172500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>173900</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>158500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>167000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>149000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>142400</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>124200</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>124000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>120700</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>124000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>131000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>126100</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>133800</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>122000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>116700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>124000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>118300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>88500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>84100</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>83600</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>78400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>64800</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>57900</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>62000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>60600</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E45" s="3">
         <v>20500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>35300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>16900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>20600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>22600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>18300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>18200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>16400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>15900</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>20300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>18700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>19000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>20000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>22500</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>15900</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>14800</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>15700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>15900</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>19100</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>12500</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>14500</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>14900</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>657500</v>
+      </c>
+      <c r="E46" s="3">
         <v>664400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>671000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>658400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>639100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>629000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>640400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>643100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>660900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>674000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>645000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>682300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>598000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>565600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>463900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>465400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>461300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>453500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>446400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>491100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>523900</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>550000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>605300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>568900</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>546900</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>530300</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>499100</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>497100</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3785,180 +3890,189 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>254700</v>
+      </c>
+      <c r="E48" s="3">
         <v>248700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>230100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>213800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>212800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>217000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>218600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>228400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>235200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>226300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>228700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>226700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>230700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>225400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>226300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>226700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>222500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>191900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>189100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>187900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>165300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>162200</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>153700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>126900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>117400</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>90600</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>87700</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>88800</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>553800</v>
+      </c>
+      <c r="E49" s="3">
         <v>558600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>425800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>427700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>435300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>440700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>447300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>454100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>459300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>465000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>468500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>470300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>475400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>476400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>484200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>489400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>493400</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>498200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>504400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>509000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>117000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>120200</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>125200</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>123400</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AB49" s="3">
         <v>36100</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AC49" s="3">
         <v>8200</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AD49" s="3">
         <v>8800</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AE49" s="3">
         <v>9400</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4043,8 +4157,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4129,94 +4246,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>108100</v>
+      </c>
+      <c r="E52" s="3">
         <v>107400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>101600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>94400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>102700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>102400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>105000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>105100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>103600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>101700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>102300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>110000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>114100</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>103200</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>107900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>101200</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>91700</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>88100</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>86300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>82500</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>86600</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>83500</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>75600</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>79100</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>83000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>74900</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>71400</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>71200</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4301,94 +4424,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1574100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1579100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1428500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1394300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1389900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1389100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1411300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1430700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1459000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1467000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1444500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1489300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1418200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1370600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1282300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1282700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1268900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1231700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1226200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1270500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>892800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>915900</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>959800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>898300</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>783400</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>704000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>667000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>666500</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4419,8 +4548,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4451,94 +4581,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>131900</v>
+      </c>
+      <c r="E57" s="3">
         <v>138700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>113100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>124500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>116400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>108500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>115900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>118600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>110800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>122900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>117800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>112400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>83200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>73800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>88800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>97100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>90700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>91900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>88600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>105600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>79000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>89500</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>87900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>99300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>81200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>75300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>67700</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>75900</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4546,10 +4680,10 @@
         <v>3200</v>
       </c>
       <c r="E58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>13000</v>
       </c>
       <c r="G58" s="3">
         <v>13000</v>
@@ -4558,64 +4692,64 @@
         <v>13000</v>
       </c>
       <c r="I58" s="3">
+        <v>13000</v>
+      </c>
+      <c r="J58" s="3">
         <v>13200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>14700</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>14800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>14900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>15400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>15300</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>15400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>15300</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>15100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>15200</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>15400</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>15700</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>15200</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>15300</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>3900</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>4400</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>2900</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>2300</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>3800</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AC58" s="3" t="s">
         <v>8</v>
@@ -4623,352 +4757,367 @@
       <c r="AD58" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>73300</v>
+      </c>
+      <c r="E59" s="3">
         <v>86100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>77300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>75500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>66400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>67100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>74600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>74500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>78500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>84900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>76000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>71000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>61400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>54700</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>59700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>72000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>74700</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>73300</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>72600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>71300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>53900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>63100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>59500</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>50700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>41500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>49100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>43500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>38000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>208400</v>
+      </c>
+      <c r="E60" s="3">
         <v>228000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>190900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>213000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>195800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>188600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>203700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>207800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>204100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>222700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>209200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>198700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>160000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>143800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>163600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>184300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>180800</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>180900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>176400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>192200</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>136800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>157000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>150300</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>152300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>126500</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>124400</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>111200</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>113900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>335800</v>
+      </c>
+      <c r="E61" s="3">
         <v>303600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>200800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>191000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>194200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>197500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>202400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>208400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>220600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>225200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>229200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>332300</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>334400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>336800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>241900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>259900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>267700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>276900</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>287700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>342300</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>49200</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>53400</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>116000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>105500</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>47600</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>27000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>37000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>97600</v>
+      </c>
+      <c r="E62" s="3">
         <v>94600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>94200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>91500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>88500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>89200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>88800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>95000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>100000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>101100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>108500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>106900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>110000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>106600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>103900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>105900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>106100</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>84200</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>88000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>92700</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>74600</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>75500</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>86300</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>33700</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>19900</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>11500</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>10900</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>10800</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5053,8 +5202,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5139,8 +5291,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5225,94 +5380,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>642700</v>
+      </c>
+      <c r="E66" s="3">
         <v>637300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>485900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>495500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>478500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>475300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>494900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>511200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>524700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>549000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>546900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>637900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>604400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>587200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>509400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>550100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>554600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>542000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>552100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>627200</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>260600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>285900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>352600</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>291500</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>194000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>162900</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>159100</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>173700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5343,8 +5504,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5429,8 +5591,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5515,8 +5680,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5601,8 +5769,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5687,94 +5858,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>764800</v>
+      </c>
+      <c r="E72" s="3">
         <v>772700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>778200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>771200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>768100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>763900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>752900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>749800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>761900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>746000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>726600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>698900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>664600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>651900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>625600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>588500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>568900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>545200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>526700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>500000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>490000</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>472000</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>439200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>467400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>446600</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>427000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>407200</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>387200</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5859,8 +6036,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5945,8 +6125,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6031,94 +6214,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>931400</v>
+      </c>
+      <c r="E76" s="3">
         <v>941800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>942600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>898800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>911400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>913800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>916400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>919500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>934300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>918000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>897600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>851400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>813800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>783400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>772900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>732600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>714300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>689700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>674100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>643300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>632200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>630000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>607200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>606800</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>589400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>541100</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>507900</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>492800</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6203,185 +6392,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45136</v>
+      </c>
+      <c r="E80" s="2">
         <v>45045</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44954</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44863</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44772</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44590</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44499</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44317</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44226</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44044</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43953</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43862</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43764</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43673</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43582</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43491</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43400</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43309</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43218</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43127</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43036</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42945</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42854</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42763</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42672</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>900</v>
+      </c>
+      <c r="E81" s="3">
         <v>8100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>19900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>27600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>21500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>16200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>29400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>27500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>29100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>31100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>31900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>38600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>20700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>30100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>41200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>23800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>28300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>22600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>30700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>14600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>23700</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>36800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-24300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>24200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>20500</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>23200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>23700</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>24900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6412,94 +6610,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E83" s="3">
         <v>12700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>12300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>12200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>12300</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>13000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>13700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>13300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>12600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>13300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>13500</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>12600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>12100</v>
-      </c>
-      <c r="P83" s="3">
-        <v>12300</v>
       </c>
       <c r="Q83" s="3">
         <v>12300</v>
       </c>
       <c r="R83" s="3">
+        <v>12300</v>
+      </c>
+      <c r="S83" s="3">
         <v>11900</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>11800</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>12700</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>12200</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>10000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>8400</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>8100</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>7100</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>7300</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>5600</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>6700</v>
-      </c>
-      <c r="AC83" s="3">
-        <v>5900</v>
       </c>
       <c r="AD83" s="3">
         <v>5900</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>5900</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6584,8 +6786,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6670,8 +6875,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6756,8 +6964,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6842,8 +7053,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6928,94 +7142,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E89" s="3">
         <v>49000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>55700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>12700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>42000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>20100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>27000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>9700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>36000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>87100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>40300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>16400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>58000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>48700</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>19100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>37700</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>28100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>16200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>20000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>30700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>41900</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>21600</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>23600</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>38500</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>43000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>29300</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7046,94 +7266,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-11200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-9600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-8400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-15900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-4800</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-4900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-3600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-13600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-13200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-12800</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-8400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-10400</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-18200</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-13000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-18300</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-8400</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-8000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-9200</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7218,8 +7442,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7304,94 +7531,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-125800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-12800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-9600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-8300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-5300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-15400</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-4800</v>
       </c>
       <c r="M94" s="3">
         <v>-4800</v>
       </c>
       <c r="N94" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="O94" s="3">
         <v>-3600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-11600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-10100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-8200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-13000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-13200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-12500</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-8800</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-431300</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-18200</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-14000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-19000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-116100</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-29900</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-8500</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-5300</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7422,79 +7655,80 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-4900</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-5000</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-4900</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-5000</v>
       </c>
       <c r="H96" s="3">
         <v>-5000</v>
       </c>
       <c r="I96" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="J96" s="3">
         <v>-5100</v>
       </c>
       <c r="K96" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="L96" s="3">
         <v>-5200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-4200</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-4100</v>
       </c>
       <c r="N96" s="3">
         <v>-4100</v>
       </c>
       <c r="O96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="P96" s="3">
         <v>-5000</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-4000</v>
-      </c>
-      <c r="R96" s="3">
-        <v>-4100</v>
       </c>
       <c r="S96" s="3">
         <v>-4100</v>
       </c>
       <c r="T96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="U96" s="3">
         <v>-3600</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-4100</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-4500</v>
-      </c>
-      <c r="W96" s="3">
-        <v>-4100</v>
       </c>
       <c r="X96" s="3">
         <v>-4100</v>
       </c>
       <c r="Y96" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="Z96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="Z96" s="3">
-        <v>-3400</v>
       </c>
       <c r="AA96" s="3">
         <v>-3400</v>
@@ -7503,13 +7737,16 @@
         <v>-3400</v>
       </c>
       <c r="AC96" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="AD96" s="3">
         <v>-3700</v>
       </c>
-      <c r="AD96" s="3">
+      <c r="AE96" s="3">
         <v>-3300</v>
       </c>
     </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7594,8 +7831,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7680,8 +7920,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7766,262 +8009,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E100" s="3">
         <v>66800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-14900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-27900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-20800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-10800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-34100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-51400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-15100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-108600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-13000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>91400</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-23000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-12300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-14400</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-14900</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-58800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>300500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-9400</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-70300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>6400</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>56900</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-5700</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-9000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-14500</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-18100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="E101" s="3">
         <v>2300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-5400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-1900</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-3900</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1300</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1600</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>2700</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>1900</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>700</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1600</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-900</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-800</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>2300</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-3000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-10000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-4300</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>16100</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>-1700</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>15900</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>4200</v>
-      </c>
-      <c r="AC101" s="3">
-        <v>-5600</v>
       </c>
       <c r="AD101" s="3">
         <v>-5600</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>-5600</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-7700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>35100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-22800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-19600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-24100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-30700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-25300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>14500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-23600</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>31300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-6300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>137400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-15700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>21800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-37200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-117600</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-17600</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-57900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>45400</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-39300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>3900</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>25200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>19200</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>300</v>
       </c>
     </row>
